--- a/data_analysis/replies_averages.xlsx
+++ b/data_analysis/replies_averages.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="555">
   <si>
     <t>tweet_id</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>AVERAGES</t>
+  </si>
+  <si>
+    <t>SUMS</t>
   </si>
   <si>
     <t>It’s critical to talk about #Mentalhealth as this really gutsy 14 does in @theage today. #SuicidePrevention https://t.co/XBsPQQRGjr</t>
@@ -214,22 +217,31 @@
     <t>@JessRowe CONGRATS on the honour, your such a role model i have Depression and Anxiety and its great to see you help such a huge issue</t>
   </si>
   <si>
+    <t>Empty DataFrame
+Columns: [comment_count, retweet_count, quote_count, heart_count, tweet_body, handle]
+Index: []</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>[('comment_count', ' 2'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', 'That’s awful. I’m sorry that you’ve been through that. Any suicide attempts are terrible,&amp;I think that it makes the need for thorough talking therapies more apparent, to ensure underlying issues are resolved. Suicide rates for trans ppl are no lower for those who’ve transitioned.'), ('handle', 'Mumoftwo1329')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', '💚💚💚💚 a true king !'), ('handle', 'HollaitsYashi')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', 'And can I make a donation and how can I help✌️'), ('handle', 'AlanGlennJohn'), ('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', 'And can I make a donation and how can I help✌️'), ('handle', 'AlanGlennJohn')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 1'), ('tweet_body', 'I think your amazing, being so strong for everyone. You lost your brother. I’m just one irrelevant person who just loved Chester and Linkin Park in a small town in Australia. Thankyou 💙💙💙'), ('handle', 'traceyc9901')]</t>
-  </si>
-  <si>
-    <t>[0.4, 0.0, 0.0, 0.2]</t>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                                                                                                                                                                                                                                                tweet_body        handle
+0             2             0           0           0  That’s awful. I’m sorry that you’ve been through that. Any suicide attempts are terrible,&amp;I think that it makes the need for thorough talking therapies more apparent, to ensure underlying issues are resolved. Suicide rates for trans ppl are no lower for those who’ve transitioned.  Mumoftwo1329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count          tweet_body         handle
+0             0             0           0           0  💚💚💚💚 a true king !  HollaitsYashi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                      tweet_body         handle
+0             0             0           0           0  And can I make a donation and how can I help✌️  AlanGlennJohn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                                                                                                                                                   tweet_body       handle
+0             0             0           0           1  I think your amazing, being so strong for everyone. You lost your brother. I’m just one irrelevant person who just loved Chester and Linkin Park in a small town in Australia. Thankyou 💙💙💙  traceyc9901</t>
+  </si>
+  <si>
+    <t>Series([], )</t>
   </si>
   <si>
     <t>Iminemism</t>
@@ -326,16 +338,16 @@
     <t>Emotionally: I'm hurt. Mentally: I'm stressed. Spiritually: I'm depressed. Physically: I smile.</t>
   </si>
   <si>
-    <t>[('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', 'Okay. Thanks. May the force be with you.'), ('handle', 'shriramdusane')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 1'), ('tweet_body', 'Good Morning 😊'), ('handle', 'Mukeshsaini595'), ('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 1'), ('tweet_body', 'Good Morning 😊'), ('handle', 'Mukeshsaini595')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', 'whyyy??'), ('handle', 'LizzanSaldhana')]</t>
-  </si>
-  <si>
-    <t>[0.75, 0.0, 0.0, 0.5]</t>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                tweet_body         handle
+0             1             0           0           0  Okay. Thanks. May the force be with you.  shriramdusane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count      tweet_body          handle
+0             1             0           0           1  Good Morning 😊  Mukeshsaini595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count tweet_body          handle
+0             0             0           0           0    whyyy??  LizzanSaldhana</t>
   </si>
   <si>
     <t>a4anthony_</t>
@@ -426,16 +438,16 @@
     <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 1'), ('tweet_body', 'I know that feeling, hang in there for now, stay strong. It gets better ❤️ sending love your way'), ('handle', 'calvinkel')]</t>
   </si>
   <si>
-    <t>[('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', 'We suppose yarn o'), ('handle', 'Tobibanks')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', "Don't be depressed my dear... Everything will be ok.."), ('handle', 'Munchi8'), ('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', "Don't be depressed my dear... Everything will be ok.."), ('handle', 'Munchi8'), ('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', "Don't be depressed my dear... Everything will be ok.."), ('handle', 'Munchi8')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', '👀👀'), ('handle', 'faa_mulan_')]</t>
-  </si>
-  <si>
-    <t>[0.125, 0.0, 0.0, 0.0]</t>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count         tweet_body     handle
+0             1             0           0           0  We suppose yarn o  Tobibanks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                             tweet_body   handle
+0             0             0           0           0  Don't be depressed my dear... Everything will be ok..  Munchi8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count tweet_body      handle
+0             0             0           0           0         👀👀  faa_mulan_</t>
   </si>
   <si>
     <t>jeragallero</t>
@@ -696,28 +708,32 @@
     <t>Dear clients, you're the only reason I'm not killing myself tonight. I'm sick and tired of being insulted and belittled by my mom.</t>
   </si>
   <si>
-    <t>[('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 1'), ('tweet_body', "Praying for you Gelliace. God's joy comes on the morning. Rest well, tomorrow you will face a brand new day, brand new start. God bless! 🌞"), ('handle', 'Donjonats'), ('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 1'), ('tweet_body', "Praying for you Gelliace. God's joy comes on the morning. Rest well, tomorrow you will face a brand new day, brand new start. God bless! 🌞"), ('handle', 'Donjonats')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', 'Comedy, Psychological, Drama, Romance, etc. Ahhahaha'), ('handle', 'rheenapaday')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', 'Try lng'), ('handle', 'bauramichael')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', 'HAHAAHHAHA badtrip ako nyan nung isang araw kay papa HAHAAH'), ('handle', 'Arvincoconut')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', 'aww... their impact 😭 im glad ure okay now klowy. if something happens andito lang ako 💕'), ('handle', 'junhoexist'), ('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', 'aww... their impact 😭 im glad ure okay now klowy. if something happens andito lang ako 💕'), ('handle', 'junhoexist')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', 'Why?'), ('handle', 'shufamayumi'), ('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', 'Why?'), ('handle', 'shufamayumi')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 1'), ('tweet_body', 'Heeey we’re all here for you ayt 🤗'), ('handle', 'issabaww'), ('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 1'), ('tweet_body', 'Heeey we’re all here for you ayt 🤗'), ('handle', 'issabaww'), ('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 1'), ('tweet_body', 'Heeey we’re all here for you ayt 🤗'), ('handle', 'issabaww')]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.0, 0.0, 0.25]</t>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                                                                                                  tweet_body     handle
+0             1             0           0           1  Praying for you Gelliace. God's joy comes on the morning. Rest well, tomorrow you will face a brand new day, brand new start. God bless! 🌞  Donjonats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                            tweet_body       handle
+0             0             0           0           0  Comedy, Psychological, Drama, Romance, etc. Ahhahaha  rheenapaday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count tweet_body        handle
+0             0             0           0           0    Try lng  bauramichael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                   tweet_body        handle
+0             0             0           0           0  HAHAAHHAHA badtrip ako nyan nung isang araw kay papa HAHAAH  Arvincoconut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                                                tweet_body      handle
+0             0             0           0           0  aww... their impact 😭 im glad ure okay now klowy. if something happens andito lang ako 💕  junhoexist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count tweet_body       handle
+0             0             0           0           0       Why?  shufamayumi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                          tweet_body    handle
+0             1             0           0           1  Heeey we’re all here for you ayt 🤗  issabaww</t>
   </si>
   <si>
     <t>ThapeloNtisa1</t>
@@ -896,34 +912,40 @@
     <t>I'm slowly killing myself, I've really turned into someone else</t>
   </si>
   <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 2'), ('tweet_body', 'Askies hle 💔'), ('handle', 'Sharyberry_M')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', "So if I was your coach we'd be SUPER mindful on using those first ~4 weeks weeks with just a tiny bit of running (and make it very easy kylekranz.com/rpe, maybe even run/walks) but focusing heavily on daily strength &amp; mobility work\nWhat has your 3-4 weeks back looked like?"), ('handle', 'kyle_j_kranz')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', 'One o vaya kadi sneakers?'), ('handle', 'patrickmandla1')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 2'), ('tweet_body', "It is said to come across such. . . .as people let's consider those who are around us.. parents siblings &amp; our kids.   Who &amp; how are they going be when we end our lives...\nPlease note us not to this"), ('handle', 'jabula65044150'), ('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 2'), ('tweet_body', "It is said to come across such. . . .as people let's consider those who are around us.. parents siblings &amp; our kids.   Who &amp; how are they going be when we end our lives...\nPlease note us not to this"), ('handle', 'jabula65044150')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', 'Piel is mos essential goods.'), ('handle', 'HabibiSouth')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', "Advise him that in this app no one is real and normal person can't get mad because people don't like his post. He have to much time in his life to worry about useless things. He was living before he join Twitter and now what changed. People are crazy over so called attention."), ('handle', 'phalanxwisi'), ('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', "Advise him that in this app no one is real and normal person can't get mad because people don't like his post. He have to much time in his life to worry about useless things. He was living before he join Twitter and now what changed. People are crazy over so called attention."), ('handle', 'phalanxwisi'), ('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', "Advise him that in this app no one is real and normal person can't get mad because people don't like his post. He have to much time in his life to worry about useless things. He was living before he join Twitter and now what changed. People are crazy over so called attention."), ('handle', 'phalanxwisi')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', "Don't be sad everything will be ok your family does love you Shirley even you boyfriend"), ('handle', 'Btsddaeng10')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', 'Attended two sessions. I remember they made me draw pictures'), ('handle', 'TooLeighMthembu')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', '@checholifestyle ish tis is sad bro...beyond actually'), ('handle', 'mmasekidi')]</t>
-  </si>
-  <si>
-    <t>[0.35714285714285715, 0.0, 0.0, 0.42857142857142855]</t>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count    tweet_body        handle
+0             0             0           0           2  Askies hle 💔  Sharyberry_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                                                                                                                                                                                                                                          tweet_body        handle
+0             0             0           0           0  So if I was your coach we'd be SUPER mindful on using those first ~4 weeks weeks with just a tiny bit of running (and make it very easy kylekranz.com/rpe, maybe even run/walks) but focusing heavily on daily strength &amp; mobility work\nWhat has your 3-4 weeks back looked like?  kyle_j_kranz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                 tweet_body          handle
+0             0             0           0           0  One o vaya kadi sneakers?  patrickmandla1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                                                                                                                                                               tweet_body          handle
+0             1             0           0           2  It is said to come across such. . . .as people let's consider those who are around us.. parents siblings &amp; our kids.   Who &amp; how are they going be when we end our lives...\nPlease note us not to this  jabula65044150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                    tweet_body       handle
+0             0             0           0           0  Piel is mos essential goods.  HabibiSouth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                                                                                                                                                                                                                                            tweet_body       handle
+0             1             0           0           0  Advise him that in this app no one is real and normal person can't get mad because people don't like his post. He have to much time in his life to worry about useless things. He was living before he join Twitter and now what changed. People are crazy over so called attention.  phalanxwisi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                                               tweet_body       handle
+0             0             0           0           0  Don't be sad everything will be ok your family does love you Shirley even you boyfriend  Btsddaeng10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                    tweet_body           handle
+0             0             0           0           0  Attended two sessions. I remember they made me draw pictures  TooLeighMthembu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                             tweet_body     handle
+0             0             0           0           0  @checholifestyle ish tis is sad bro...beyond actually  mmasekidi</t>
   </si>
   <si>
     <t>LeeLooLey</t>
@@ -1160,58 +1182,71 @@
     <t>there’s so much I need/want to do but I’m depressed so I’m going to sleep 16 hours a day instead</t>
   </si>
   <si>
-    <t>[('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', 'Tomorrow I promise to share this story with you, and how my puppy helped save my life. #mhaw17'), ('handle', 'LeeLooLey')]</t>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                                                      tweet_body     handle
+0             1             0           0           0  Tomorrow I promise to share this story with you, and how my puppy helped save my life. #mhaw17  LeeLooLey</t>
   </si>
   <si>
     <t>[('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', 'Just keep the words going and delete the wrong ones later. You can totes do it.'), ('handle', 'CharlieChitty')]</t>
   </si>
   <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', 'I hope awareness of #mentalhealth provides others the needed support that there is no stigma as there are others in the same situation x ❤️'), ('handle', 'Hywel_Davies1')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 1'), ('tweet_body', ''), ('handle', 'pantonandrew')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 1'), ('tweet_body', "I hear you on that. It's as much for us as for them x"), ('handle', 'charleneallcott')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', '@Jack_Septic_Eye'), ('handle', 'rebeccajhorne9')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', "I sleep a lot when I'm depressed."), ('handle', 'Daphne_Writes')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 1'), ('tweet_body', 'We love this 🧡Important message and High fives for sharing your story 🙌'), ('handle', 'Pjoys'), ('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 1'), ('tweet_body', 'We love this 🧡Important message and High fives for sharing your story 🙌'), ('handle', 'Pjoys'), ('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 1'), ('tweet_body', 'We love this 🧡Important message and High fives for sharing your story 🙌'), ('handle', 'Pjoys'), ('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 1'), ('tweet_body', 'We love this 🧡Important message and High fives for sharing your story 🙌'), ('handle', 'Pjoys'), ('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 1'), ('tweet_body', 'We love this 🧡Important message and High fives for sharing your story 🙌'), ('handle', 'Pjoys')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', ''), ('handle', 'Elder_Gamesman'), ('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', ''), ('handle', 'Elder_Gamesman'), ('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', ''), ('handle', 'Elder_Gamesman')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 1'), ('tweet_body', 'Yeah, my anxiety is like that. Big hugs for you and you can always message if you need to talk 💕'), ('handle', 'RaraSensei')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 1'), ('tweet_body', 'Well I have motivation I just have no idea what to do.'), ('handle', 'hannahduncan_')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 1'), ('tweet_body', 'ME'), ('handle', 'nkycheong')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', 'You’re hardly 22 🙄'), ('handle', 'LipViCarrieWood')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', '#staystrong'), ('handle', 'SELKGrassroots')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 1'), ('tweet_body', 'Baby girllll - love you ❤️'), ('handle', 'mayyammay_'), ('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 1'), ('tweet_body', 'Baby girllll - love you ❤️'), ('handle', 'mayyammay_')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 2'), ('tweet_body', 'This is the foulest response ever 🤢'), ('handle', 'jjvioletx'), ('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 2'), ('tweet_body', 'This is the foulest response ever 🤢'), ('handle', 'jjvioletx'), ('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 2'), ('tweet_body', 'This is the foulest response ever 🤢'), ('handle', 'jjvioletx')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', 'I love u baby'), ('handle', 'lucychristinac')]</t>
-  </si>
-  <si>
-    <t>[0.4, 0.0, 0.0, 0.72]</t>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                                                                                                   tweet_body         handle
+0             0             0           0           0  I hope awareness of #mentalhealth provides others the needed support that there is no stigma as there are others in the same situation x ❤️  Hywel_Davies1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count tweet_body        handle
+0             1             0           0           1             pantonandrew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                             tweet_body           handle
+0             1             0           0           1  I hear you on that. It's as much for us as for them x  charleneallcott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count        tweet_body          handle
+0             0             0           0           0  @Jack_Septic_Eye  rebeccajhorne9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                         tweet_body         handle
+0             0             0           0           0  I sleep a lot when I'm depressed.  Daphne_Writes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                               tweet_body handle
+0             0             0           0           1  We love this 🧡Important message and High fives for sharing your story 🙌  Pjoys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count tweet_body          handle
+0             0             0           0           0             Elder_Gamesman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                                                        tweet_body      handle
+0             1             0           0           1  Yeah, my anxiety is like that. Big hugs for you and you can always message if you need to talk 💕  RaraSensei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                              tweet_body         handle
+0             0             0           0           1  Well I have motivation I just have no idea what to do.  hannahduncan_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count tweet_body     handle
+0             1             0           0           1         ME  nkycheong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count          tweet_body           handle
+0             0             0           0           0  You’re hardly 22 🙄  LipViCarrieWood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count   tweet_body          handle
+0             0             0           0           0  #staystrong  SELKGrassroots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                  tweet_body      handle
+0             1             0           0           1  Baby girllll - love you ❤️  mayyammay_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                           tweet_body     handle
+0             1             0           0           2  This is the foulest response ever 🤢  jjvioletx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count     tweet_body          handle
+0             0             0           0           0  I love u baby  lucychristinac</t>
   </si>
   <si>
     <t>BardiKi_29</t>
@@ -1697,52 +1732,64 @@
     <t>Yup killing myself</t>
   </si>
   <si>
-    <t>[('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', "Omg this is a genius idea. Like please make me food or remind me to drink water or wash the growing pile of laundry that's been untouched for weeks."), ('handle', 'Blueismycolorrn')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 1'), ('tweet_body', 'You got this brotha. Keep on keeping on.'), ('handle', 'THAT_G0MEZ'), ('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 1'), ('tweet_body', 'You got this brotha. Keep on keeping on.'), ('handle', 'THAT_G0MEZ'), ('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 1'), ('tweet_body', 'You got this brotha. Keep on keeping on.'), ('handle', 'THAT_G0MEZ')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 5'), ('tweet_body', ''), ('handle', 'LittleMasshole'), ('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 5'), ('tweet_body', ''), ('handle', 'LittleMasshole'), ('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 5'), ('tweet_body', ''), ('handle', 'LittleMasshole'), ('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 5'), ('tweet_body', ''), ('handle', 'LittleMasshole'), ('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 5'), ('tweet_body', ''), ('handle', 'LittleMasshole'), ('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 5'), ('tweet_body', ''), ('handle', 'LittleMasshole'), ('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 5'), ('tweet_body', ''), ('handle', 'LittleMasshole'), ('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 5'), ('tweet_body', ''), ('handle', 'LittleMasshole'), ('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 5'), ('tweet_body', ''), ('handle', 'LittleMasshole')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', "Let's go 😉"), ('handle', 'Alexand66037980')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 1'), ('tweet_body', 'Just be happy! Duh'), ('handle', 'Fire__giant')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', 'Thank you.'), ('handle', 'cujokillerpug')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', 'life😓'), ('handle', 'chrisgall_way')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 1'), ('tweet_body', "That's honestly incredible I know how that feels I did the same thing I felt the same way parents might not appreciate you but as long as you know you doing something for them that's all that really matters you should be proud I would."), ('handle', 'xeoscump'), ('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 1'), ('tweet_body', "That's honestly incredible I know how that feels I did the same thing I felt the same way parents might not appreciate you but as long as you know you doing something for them that's all that really matters you should be proud I would."), ('handle', 'xeoscump')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 1'), ('tweet_body', 'Honestly same'), ('handle', 'FoosTristin')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', 'That is true. It frustrates me'), ('handle', 'cujokillerpug')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', 'Best wishes on your transition to SC. #BPDChat'), ('handle', 'CarlDunnJr')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 1'), ('tweet_body', "You're here &amp; that you finally got the correct diagnosis. #BPDChat"), ('handle', 'CarlDunnJr')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 2'), ('tweet_body', 'it was like a blanket of warmth came over me.'), ('handle', 'cujokillerpug')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', "@agregg08_ it's honestly sad"), ('handle', 'imgoing_lin')]</t>
-  </si>
-  <si>
-    <t>[('comment_count', ' 1'), ('retweet_count', ' 1'), ('quote_count', 0), ('heart_count', 0), ('tweet_body', '@shirastackz_ uh oh'), ('handle', 'doctor__the')]</t>
-  </si>
-  <si>
-    <t>[0.3142857142857143, 0.02857142857142857, 0.0, 1.5714285714285714]</t>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                                                                                                            tweet_body           handle
+0             1             0           0           0  Omg this is a genius idea. Like please make me food or remind me to drink water or wash the growing pile of laundry that's been untouched for weeks.  Blueismycolorrn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                tweet_body      handle
+0             1             0           0           1  You got this brotha. Keep on keeping on.  THAT_G0MEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count tweet_body          handle
+0             0             0           0           5             LittleMasshole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count  tweet_body           handle
+0             0             0           0           0  Let's go 😉  Alexand66037980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count          tweet_body       handle
+0             1             0           0           1  Just be happy! Duh  Fire__giant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count  tweet_body         handle
+0             0             0           0           0  Thank you.  cujokillerpug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count tweet_body         handle
+0             0             0           0           0      life😓  chrisgall_way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                                                                                                                                                                                                   tweet_body    handle
+0             1             0           0           1  That's honestly incredible I know how that feels I did the same thing I felt the same way parents might not appreciate you but as long as you know you doing something for them that's all that really matters you should be proud I would.  xeoscump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count     tweet_body       handle
+0             1             0           0           1  Honestly same  FoosTristin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                      tweet_body         handle
+0             0             0           0           0  That is true. It frustrates me  cujokillerpug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                      tweet_body      handle
+0             1             0           0           0  Best wishes on your transition to SC. #BPDChat  CarlDunnJr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                          tweet_body      handle
+0             1             0           0           1  You're here &amp; that you finally got the correct diagnosis. #BPDChat  CarlDunnJr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                     tweet_body         handle
+0             0             0           0           2  it was like a blanket of warmth came over me.  cujokillerpug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                    tweet_body       handle
+0             0             0           0           0  @agregg08_ it's honestly sad  imgoing_lin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count           tweet_body       handle
+0             1             1           0           0  @shirastackz_ uh oh  doctor__the</t>
   </si>
 </sst>
 </file>
@@ -2100,7 +2147,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2143,7 +2190,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2158,7 +2205,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2172,7 +2219,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2187,7 +2234,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2201,7 +2248,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2216,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2230,7 +2277,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2245,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2259,7 +2306,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2274,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2288,7 +2335,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2303,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2317,7 +2364,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2332,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2346,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2361,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2375,7 +2422,7 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -2390,7 +2437,7 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2404,7 +2451,7 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2419,7 +2466,7 @@
         <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2433,7 +2480,7 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2448,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2462,7 +2509,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2477,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2491,7 +2538,7 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2506,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2520,7 +2567,7 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2535,7 +2582,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2549,7 +2596,7 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2564,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2578,7 +2625,7 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2593,7 +2640,7 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2607,7 +2654,7 @@
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2622,7 +2669,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2636,7 +2683,7 @@
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2651,7 +2698,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2665,7 +2712,7 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2680,7 +2727,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2694,7 +2741,7 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2709,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2723,7 +2770,7 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2738,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2752,7 +2799,7 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2767,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2781,7 +2828,7 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2796,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2810,7 +2857,7 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2825,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2839,7 +2886,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2854,7 +2901,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2868,7 +2915,7 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2883,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2897,7 +2944,7 @@
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2912,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2926,7 +2973,7 @@
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2941,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2955,7 +3002,7 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2970,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2984,7 +3031,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2999,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -3022,10 +3069,36 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>1.333333333333333</v>
+        <v>1.433333333333333</v>
       </c>
       <c r="I32" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>43</v>
+      </c>
+      <c r="I33" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3035,7 +3108,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3075,10 +3148,10 @@
         <v>1.542401469978386E+18</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3093,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3104,10 +3177,10 @@
         <v>1.408030720711217E+18</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -3122,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3133,10 +3206,10 @@
         <v>1.094226244248498E+18</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3151,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3162,10 +3235,10 @@
         <v>1.048135847780934E+18</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3180,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3191,10 +3264,10 @@
         <v>1.041026955624239E+18</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3209,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3220,10 +3293,10 @@
         <v>1.048135847780934E+18</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3238,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3249,10 +3322,10 @@
         <v>9.42435551470166E+17</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3267,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3278,10 +3351,10 @@
         <v>9.216184057650053E+17</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -3296,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3307,10 +3380,10 @@
         <v>9.031143991913759E+17</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3325,7 +3398,7 @@
         <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3336,10 +3409,10 @@
         <v>7.483485491638026E+17</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3354,7 +3427,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3365,10 +3438,10 @@
         <v>6.851318911675064E+17</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3383,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3394,10 +3467,10 @@
         <v>6.81899811558146E+17</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -3412,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3423,10 +3496,10 @@
         <v>6.155653983484682E+17</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3441,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3452,10 +3525,10 @@
         <v>5.940681626786406E+17</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3470,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3481,10 +3554,10 @@
         <v>5.536432516226335E+17</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3499,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3513,7 +3586,7 @@
         <v>31</v>
       </c>
       <c r="E17">
-        <v>0.2666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="F17">
         <v>0.1333333333333333</v>
@@ -3525,7 +3598,33 @@
         <v>0.4</v>
       </c>
       <c r="I17" t="s">
-        <v>100</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3535,7 +3634,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3575,10 +3674,10 @@
         <v>1.447599072991486E+18</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3593,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3604,10 +3703,10 @@
         <v>1.377546104787628E+18</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -3622,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3633,10 +3732,10 @@
         <v>1.359538269193703E+18</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3651,7 +3750,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3662,10 +3761,10 @@
         <v>1.309923412543001E+18</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3680,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3691,10 +3790,10 @@
         <v>1.299682346300584E+18</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3709,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3720,10 +3819,10 @@
         <v>1.248743900266676E+18</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3738,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3749,10 +3848,10 @@
         <v>1.248743098751959E+18</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3767,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3778,10 +3877,10 @@
         <v>1.245686597204484E+18</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3796,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3807,10 +3906,10 @@
         <v>1.24568190231038E+18</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3825,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3836,10 +3935,10 @@
         <v>1.22671032193244E+18</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3854,7 +3953,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3865,10 +3964,10 @@
         <v>1.210112519441912E+18</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3883,7 +3982,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3894,10 +3993,10 @@
         <v>1.171178696474092E+18</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -3912,7 +4011,7 @@
         <v>7</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3923,10 +4022,10 @@
         <v>1.163225979235504E+18</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -3941,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3952,10 +4051,10 @@
         <v>1.130949706459357E+18</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3970,7 +4069,7 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3981,10 +4080,10 @@
         <v>8.307012931403203E+17</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3999,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4013,7 +4112,7 @@
         <v>31</v>
       </c>
       <c r="E17">
-        <v>0.5333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="F17">
         <v>0.3333333333333333</v>
@@ -4022,10 +4121,36 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>1.066666666666667</v>
       </c>
       <c r="I17" t="s">
-        <v>131</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4035,7 +4160,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4093,7 +4218,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4122,7 +4247,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4151,7 +4276,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4180,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4209,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4238,7 +4363,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4296,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4325,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4354,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4383,7 +4508,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4412,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4441,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4470,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4528,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4557,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4586,7 +4711,7 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -4644,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -4673,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -4702,7 +4827,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -4731,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -4760,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -4818,7 +4943,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -4847,7 +4972,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -4934,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4963,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4992,7 +5117,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -5021,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -5050,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -5079,7 +5204,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -5108,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -5137,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -5195,7 +5320,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -5224,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -5253,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -5282,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -5311,7 +5436,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -5334,10 +5459,36 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0.6744186046511628</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="I45" t="s">
-        <v>222</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46">
+        <v>20</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>30</v>
+      </c>
+      <c r="I46" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -5347,7 +5498,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5387,10 +5538,10 @@
         <v>1.590686560919654E+18</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -5405,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5416,10 +5567,10 @@
         <v>1.575390496431776E+18</v>
       </c>
       <c r="C3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5434,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5445,10 +5596,10 @@
         <v>1.55730013134667E+18</v>
       </c>
       <c r="C4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -5463,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5474,10 +5625,10 @@
         <v>1.527241376399868E+18</v>
       </c>
       <c r="C5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5492,7 +5643,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5503,10 +5654,10 @@
         <v>1.49651731080228E+18</v>
       </c>
       <c r="C6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -5521,7 +5672,7 @@
         <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5532,10 +5683,10 @@
         <v>1.466104095744401E+18</v>
       </c>
       <c r="C7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5550,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5561,10 +5712,10 @@
         <v>1.448114799649436E+18</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -5579,7 +5730,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5590,10 +5741,10 @@
         <v>1.409017562726339E+18</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -5608,7 +5759,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5619,10 +5770,10 @@
         <v>1.398516745875374E+18</v>
       </c>
       <c r="C10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -5637,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -5648,10 +5799,10 @@
         <v>1.355939767893062E+18</v>
       </c>
       <c r="C11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -5666,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -5677,10 +5828,10 @@
         <v>1.31105344213212E+18</v>
       </c>
       <c r="C12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -5695,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -5706,10 +5857,10 @@
         <v>1.292735989182538E+18</v>
       </c>
       <c r="C13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -5724,7 +5875,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -5735,10 +5886,10 @@
         <v>1.290013593040089E+18</v>
       </c>
       <c r="C14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -5753,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -5764,10 +5915,10 @@
         <v>1.289812721957994E+18</v>
       </c>
       <c r="C15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -5782,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -5793,10 +5944,10 @@
         <v>1.289784825373577E+18</v>
       </c>
       <c r="C16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -5811,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -5822,10 +5973,10 @@
         <v>1.253338597853295E+18</v>
       </c>
       <c r="C17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -5840,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -5851,10 +6002,10 @@
         <v>1.197512813905883E+18</v>
       </c>
       <c r="C18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -5869,7 +6020,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -5880,10 +6031,10 @@
         <v>1.197510803743793E+18</v>
       </c>
       <c r="C19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -5898,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -5909,10 +6060,10 @@
         <v>1.172063485511053E+18</v>
       </c>
       <c r="C20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -5927,7 +6078,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -5938,10 +6089,10 @@
         <v>1.168994984487522E+18</v>
       </c>
       <c r="C21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -5956,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -5967,10 +6118,10 @@
         <v>1.132966153561813E+18</v>
       </c>
       <c r="C22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -5985,7 +6136,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -5996,10 +6147,10 @@
         <v>1.04961277312938E+18</v>
       </c>
       <c r="C23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -6014,7 +6165,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -6025,10 +6176,10 @@
         <v>1.04025679417251E+18</v>
       </c>
       <c r="C24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -6043,7 +6194,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -6054,10 +6205,10 @@
         <v>1.024666495673147E+18</v>
       </c>
       <c r="C25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -6072,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -6083,10 +6234,10 @@
         <v>1.013535691698049E+18</v>
       </c>
       <c r="C26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -6101,7 +6252,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -6112,10 +6263,10 @@
         <v>9.963012447959695E+17</v>
       </c>
       <c r="C27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -6130,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -6141,10 +6292,10 @@
         <v>9.85593530704855E+17</v>
       </c>
       <c r="C28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -6159,7 +6310,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -6170,10 +6321,10 @@
         <v>9.336186149467218E+17</v>
       </c>
       <c r="C29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -6188,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -6199,10 +6350,10 @@
         <v>7.784641409185956E+17</v>
       </c>
       <c r="C30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -6217,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -6228,10 +6379,10 @@
         <v>6.605089407955395E+17</v>
       </c>
       <c r="C31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -6246,7 +6397,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -6272,7 +6423,33 @@
         <v>0.8</v>
       </c>
       <c r="I32" t="s">
-        <v>290</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33">
+        <v>14</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>24</v>
+      </c>
+      <c r="I33" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -6282,7 +6459,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6322,10 +6499,10 @@
         <v>8.63118697732481E+17</v>
       </c>
       <c r="C2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -6340,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6351,10 +6528,10 @@
         <v>8.590192912068362E+17</v>
       </c>
       <c r="C3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -6369,7 +6546,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6380,10 +6557,10 @@
         <v>7.854149874015519E+17</v>
       </c>
       <c r="C4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -6398,7 +6575,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6409,10 +6586,10 @@
         <v>7.814875123384934E+17</v>
       </c>
       <c r="C5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -6427,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6438,10 +6615,10 @@
         <v>7.725478957699154E+17</v>
       </c>
       <c r="C6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -6456,7 +6633,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6467,10 +6644,10 @@
         <v>7.392101306302669E+17</v>
       </c>
       <c r="C7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6485,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6496,10 +6673,10 @@
         <v>7.071866685084549E+17</v>
       </c>
       <c r="C8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6514,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6525,10 +6702,10 @@
         <v>6.923541979294884E+17</v>
       </c>
       <c r="C9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -6543,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6554,10 +6731,10 @@
         <v>6.644661061286912E+17</v>
       </c>
       <c r="C10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -6572,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6583,10 +6760,10 @@
         <v>6.560998697619169E+17</v>
       </c>
       <c r="C11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -6601,7 +6778,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6612,10 +6789,10 @@
         <v>6.336076294498755E+17</v>
       </c>
       <c r="C12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -6630,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -6641,10 +6818,10 @@
         <v>5.853954683242291E+17</v>
       </c>
       <c r="C13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -6659,7 +6836,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6670,10 +6847,10 @@
         <v>5.757110319531295E+17</v>
       </c>
       <c r="C14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -6688,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6699,10 +6876,10 @@
         <v>5.757104571908342E+17</v>
       </c>
       <c r="C15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -6717,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6728,10 +6905,10 @@
         <v>9.700254636273705E+17</v>
       </c>
       <c r="C16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -6746,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -6757,10 +6934,10 @@
         <v>9.697101020464783E+17</v>
       </c>
       <c r="C17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D17" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -6775,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -6786,10 +6963,10 @@
         <v>9.591727127269212E+17</v>
       </c>
       <c r="C18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D18" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -6804,7 +6981,7 @@
         <v>3</v>
       </c>
       <c r="I18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -6815,10 +6992,10 @@
         <v>1.065369524260798E+18</v>
       </c>
       <c r="C19" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E19">
         <v>5</v>
@@ -6833,7 +7010,7 @@
         <v>197</v>
       </c>
       <c r="I19" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -6844,10 +7021,10 @@
         <v>1.014138184375198E+18</v>
       </c>
       <c r="C20" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -6862,7 +7039,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -6873,10 +7050,10 @@
         <v>1.012087419276026E+18</v>
       </c>
       <c r="C21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D21" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -6891,7 +7068,7 @@
         <v>7</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -6902,10 +7079,10 @@
         <v>9.871529791227945E+17</v>
       </c>
       <c r="C22" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D22" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -6920,7 +7097,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -6931,10 +7108,10 @@
         <v>9.823495409667195E+17</v>
       </c>
       <c r="C23" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D23" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -6949,7 +7126,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -6960,10 +7137,10 @@
         <v>1.171420542169244E+18</v>
       </c>
       <c r="C24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -6978,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -6989,10 +7166,10 @@
         <v>1.162053380212064E+18</v>
       </c>
       <c r="C25" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D25" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -7007,7 +7184,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -7018,10 +7195,10 @@
         <v>1.162053380212064E+18</v>
       </c>
       <c r="C26" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D26" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -7036,7 +7213,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -7047,10 +7224,10 @@
         <v>1.139832230530945E+18</v>
       </c>
       <c r="C27" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D27" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -7065,7 +7242,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -7076,10 +7253,10 @@
         <v>1.138465825722118E+18</v>
       </c>
       <c r="C28" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -7094,7 +7271,7 @@
         <v>6</v>
       </c>
       <c r="I28" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -7105,10 +7282,10 @@
         <v>1.131915405117862E+18</v>
       </c>
       <c r="C29" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D29" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -7123,7 +7300,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -7134,10 +7311,10 @@
         <v>1.124431590908674E+18</v>
       </c>
       <c r="C30" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D30" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -7152,7 +7329,7 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -7163,10 +7340,10 @@
         <v>1.122881001359852E+18</v>
       </c>
       <c r="C31" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D31" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -7181,7 +7358,7 @@
         <v>6</v>
       </c>
       <c r="I31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -7192,10 +7369,10 @@
         <v>1.098574096663753E+18</v>
       </c>
       <c r="C32" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D32" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -7210,7 +7387,7 @@
         <v>8</v>
       </c>
       <c r="I32" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -7221,10 +7398,10 @@
         <v>1.292866207146705E+18</v>
       </c>
       <c r="C33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D33" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -7239,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -7250,10 +7427,10 @@
         <v>1.278149509734957E+18</v>
       </c>
       <c r="C34" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D34" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -7268,7 +7445,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -7279,10 +7456,10 @@
         <v>1.263210483827577E+18</v>
       </c>
       <c r="C35" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D35" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -7297,7 +7474,7 @@
         <v>19</v>
       </c>
       <c r="I35" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -7308,10 +7485,10 @@
         <v>1.261731415252754E+18</v>
       </c>
       <c r="C36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D36" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -7326,7 +7503,7 @@
         <v>6</v>
       </c>
       <c r="I36" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -7337,10 +7514,10 @@
         <v>1.261679321615405E+18</v>
       </c>
       <c r="C37" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D37" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E37">
         <v>3</v>
@@ -7355,7 +7532,7 @@
         <v>38</v>
       </c>
       <c r="I37" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -7366,10 +7543,10 @@
         <v>1.249784364780655E+18</v>
       </c>
       <c r="C38" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D38" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -7384,7 +7561,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -7395,10 +7572,10 @@
         <v>1.249783454159553E+18</v>
       </c>
       <c r="C39" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D39" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -7413,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -7424,10 +7601,10 @@
         <v>1.212516210736275E+18</v>
       </c>
       <c r="C40" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D40" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -7442,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -7453,10 +7630,10 @@
         <v>1.198672560516256E+18</v>
       </c>
       <c r="C41" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D41" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -7471,7 +7648,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -7482,10 +7659,10 @@
         <v>1.182424872783417E+18</v>
       </c>
       <c r="C42" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D42" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -7500,7 +7677,7 @@
         <v>8</v>
       </c>
       <c r="I42" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -7514,7 +7691,7 @@
         <v>31</v>
       </c>
       <c r="E43">
-        <v>0.6097560975609756</v>
+        <v>0.6341463414634146</v>
       </c>
       <c r="F43">
         <v>0.5609756097560976</v>
@@ -7523,10 +7700,36 @@
         <v>0.04878048780487805</v>
       </c>
       <c r="H43">
-        <v>7.658536585365853</v>
+        <v>7.682926829268292</v>
       </c>
       <c r="I43" t="s">
-        <v>384</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44">
+        <v>26</v>
+      </c>
+      <c r="F44">
+        <v>23</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>315</v>
+      </c>
+      <c r="I44" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -7536,7 +7739,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7576,10 +7779,10 @@
         <v>1.589092437771047E+18</v>
       </c>
       <c r="C2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7594,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -7605,10 +7808,10 @@
         <v>1.579547550633558E+18</v>
       </c>
       <c r="C3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -7623,7 +7826,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -7634,10 +7837,10 @@
         <v>1.577785118072119E+18</v>
       </c>
       <c r="C4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D4" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -7652,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -7663,10 +7866,10 @@
         <v>1.575326459501109E+18</v>
       </c>
       <c r="C5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D5" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -7681,7 +7884,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -7692,10 +7895,10 @@
         <v>1.558677784842609E+18</v>
       </c>
       <c r="C6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D6" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -7710,7 +7913,7 @@
         <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -7721,10 +7924,10 @@
         <v>1.547693283916231E+18</v>
       </c>
       <c r="C7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7739,7 +7942,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -7750,10 +7953,10 @@
         <v>1.541425004692349E+18</v>
       </c>
       <c r="C8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D8" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7768,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -7779,10 +7982,10 @@
         <v>1.514112052545085E+18</v>
       </c>
       <c r="C9" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D9" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -7797,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -7808,10 +8011,10 @@
         <v>1.473154859058696E+18</v>
       </c>
       <c r="C10" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D10" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -7826,7 +8029,7 @@
         <v>8</v>
       </c>
       <c r="I10" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -7837,10 +8040,10 @@
         <v>1.462119080383562E+18</v>
       </c>
       <c r="C11" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D11" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -7855,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -7866,10 +8069,10 @@
         <v>1.462063656880026E+18</v>
       </c>
       <c r="C12" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D12" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -7884,7 +8087,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -7895,10 +8098,10 @@
         <v>1.460475011190432E+18</v>
       </c>
       <c r="C13" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D13" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -7913,7 +8116,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -7924,10 +8127,10 @@
         <v>1.456811775421075E+18</v>
       </c>
       <c r="C14" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D14" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -7942,7 +8145,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -7953,10 +8156,10 @@
         <v>1.456069108043108E+18</v>
       </c>
       <c r="C15" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D15" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -7971,7 +8174,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -7982,10 +8185,10 @@
         <v>1.449280021353439E+18</v>
       </c>
       <c r="C16" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D16" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -8000,7 +8203,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -8011,10 +8214,10 @@
         <v>1.446171692330459E+18</v>
       </c>
       <c r="C17" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D17" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -8029,7 +8232,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -8040,10 +8243,10 @@
         <v>1.415736210782253E+18</v>
       </c>
       <c r="C18" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D18" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E18">
         <v>12</v>
@@ -8058,7 +8261,7 @@
         <v>557</v>
       </c>
       <c r="I18" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -8069,10 +8272,10 @@
         <v>1.415006124399469E+18</v>
       </c>
       <c r="C19" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D19" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -8087,7 +8290,7 @@
         <v>13</v>
       </c>
       <c r="I19" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -8098,10 +8301,10 @@
         <v>1.410994686173585E+18</v>
       </c>
       <c r="C20" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D20" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -8116,7 +8319,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -8127,10 +8330,10 @@
         <v>1.381799955581579E+18</v>
       </c>
       <c r="C21" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D21" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -8145,7 +8348,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -8156,10 +8359,10 @@
         <v>1.269855179794461E+18</v>
       </c>
       <c r="C22" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D22" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -8174,7 +8377,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -8185,10 +8388,10 @@
         <v>1.248851106127663E+18</v>
       </c>
       <c r="C23" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D23" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -8203,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -8214,10 +8417,10 @@
         <v>1.247735261716496E+18</v>
       </c>
       <c r="C24" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D24" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -8232,7 +8435,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -8243,10 +8446,10 @@
         <v>1.302276367921361E+18</v>
       </c>
       <c r="C25" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D25" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -8261,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -8272,10 +8475,10 @@
         <v>1.202438331667276E+18</v>
       </c>
       <c r="C26" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D26" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -8290,7 +8493,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -8301,10 +8504,10 @@
         <v>1.201324695867539E+18</v>
       </c>
       <c r="C27" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D27" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -8319,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -8330,10 +8533,10 @@
         <v>1.186372227685421E+18</v>
       </c>
       <c r="C28" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D28" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -8348,7 +8551,7 @@
         <v>7</v>
       </c>
       <c r="I28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -8359,10 +8562,10 @@
         <v>1.18532376415157E+18</v>
       </c>
       <c r="C29" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D29" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -8377,7 +8580,7 @@
         <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -8388,10 +8591,10 @@
         <v>1.184979238882931E+18</v>
       </c>
       <c r="C30" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D30" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -8406,7 +8609,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -8417,10 +8620,10 @@
         <v>1.166203301668561E+18</v>
       </c>
       <c r="C31" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D31" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -8435,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -8446,10 +8649,10 @@
         <v>1.164751932411396E+18</v>
       </c>
       <c r="C32" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D32" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -8464,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -8475,10 +8678,10 @@
         <v>1.142620829747954E+18</v>
       </c>
       <c r="C33" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D33" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -8493,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -8504,10 +8707,10 @@
         <v>1.095464766942994E+18</v>
       </c>
       <c r="C34" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D34" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -8522,7 +8725,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -8533,10 +8736,10 @@
         <v>1.090877444595171E+18</v>
       </c>
       <c r="C35" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D35" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -8551,7 +8754,7 @@
         <v>28</v>
       </c>
       <c r="I35" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -8562,10 +8765,10 @@
         <v>1.089283910163407E+18</v>
       </c>
       <c r="C36" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D36" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -8580,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -8591,10 +8794,10 @@
         <v>1.074725586101096E+18</v>
       </c>
       <c r="C37" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D37" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -8609,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -8620,10 +8823,10 @@
         <v>1.048367977396093E+18</v>
       </c>
       <c r="C38" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D38" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -8638,7 +8841,7 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -8649,10 +8852,10 @@
         <v>1.043562342645162E+18</v>
       </c>
       <c r="C39" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D39" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -8667,7 +8870,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -8678,10 +8881,10 @@
         <v>1.038570265964368E+18</v>
       </c>
       <c r="C40" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D40" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -8696,7 +8899,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -8707,10 +8910,10 @@
         <v>1.023013002948293E+18</v>
       </c>
       <c r="C41" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D41" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -8725,7 +8928,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -8736,10 +8939,10 @@
         <v>1.019805406296588E+18</v>
       </c>
       <c r="C42" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D42" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -8754,7 +8957,7 @@
         <v>4</v>
       </c>
       <c r="I42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -8765,10 +8968,10 @@
         <v>1.019418420717244E+18</v>
       </c>
       <c r="C43" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D43" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -8783,7 +8986,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -8794,10 +8997,10 @@
         <v>1.014628380367639E+18</v>
       </c>
       <c r="C44" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D44" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -8812,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -8823,10 +9026,10 @@
         <v>1.00638734104322E+18</v>
       </c>
       <c r="C45" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D45" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -8841,7 +9044,7 @@
         <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -8852,10 +9055,10 @@
         <v>9.87890309400023E+17</v>
       </c>
       <c r="C46" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D46" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -8870,7 +9073,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -8881,10 +9084,10 @@
         <v>9.737320600523776E+17</v>
       </c>
       <c r="C47" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D47" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -8899,7 +9102,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -8910,10 +9113,10 @@
         <v>9.507668829440328E+17</v>
       </c>
       <c r="C48" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D48" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -8928,7 +9131,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -8939,10 +9142,10 @@
         <v>9.457931884213985E+17</v>
       </c>
       <c r="C49" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D49" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -8957,7 +9160,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -8968,10 +9171,10 @@
         <v>9.450864327370752E+17</v>
       </c>
       <c r="C50" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D50" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -8986,7 +9189,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -8997,10 +9200,10 @@
         <v>9.44883548787327E+17</v>
       </c>
       <c r="C51" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D51" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -9015,7 +9218,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -9026,10 +9229,10 @@
         <v>9.42624575728255E+17</v>
       </c>
       <c r="C52" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D52" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -9044,7 +9247,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -9055,10 +9258,10 @@
         <v>9.32653939148886E+17</v>
       </c>
       <c r="C53" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D53" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -9073,7 +9276,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -9084,10 +9287,10 @@
         <v>9.032869562846618E+17</v>
       </c>
       <c r="C54" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D54" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -9102,7 +9305,7 @@
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -9113,10 +9316,10 @@
         <v>9.02970015925887E+17</v>
       </c>
       <c r="C55" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D55" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -9131,7 +9334,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -9142,10 +9345,10 @@
         <v>9.027795797980529E+17</v>
       </c>
       <c r="C56" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D56" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -9160,7 +9363,7 @@
         <v>2</v>
       </c>
       <c r="I56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -9171,10 +9374,10 @@
         <v>8.919070002626847E+17</v>
       </c>
       <c r="C57" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D57" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -9189,7 +9392,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -9200,10 +9403,10 @@
         <v>8.856597209247703E+17</v>
       </c>
       <c r="C58" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D58" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -9218,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -9229,10 +9432,10 @@
         <v>8.814610147636306E+17</v>
       </c>
       <c r="C59" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D59" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -9247,7 +9450,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -9258,10 +9461,10 @@
         <v>8.677945105494589E+17</v>
       </c>
       <c r="C60" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D60" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -9276,7 +9479,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -9287,10 +9490,10 @@
         <v>8.663894486904586E+17</v>
       </c>
       <c r="C61" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D61" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -9305,7 +9508,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -9316,10 +9519,10 @@
         <v>8.663891305567109E+17</v>
       </c>
       <c r="C62" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D62" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -9334,7 +9537,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -9345,10 +9548,10 @@
         <v>8.561053931221524E+17</v>
       </c>
       <c r="C63" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D63" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -9363,7 +9566,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -9374,10 +9577,10 @@
         <v>8.537500640403415E+17</v>
       </c>
       <c r="C64" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D64" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -9392,7 +9595,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -9403,10 +9606,10 @@
         <v>8.500882893064643E+17</v>
       </c>
       <c r="C65" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D65" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -9421,7 +9624,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -9432,10 +9635,10 @@
         <v>8.309054852976067E+17</v>
       </c>
       <c r="C66" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D66" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -9450,7 +9653,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -9461,10 +9664,10 @@
         <v>8.207483090233795E+17</v>
       </c>
       <c r="C67" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D67" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -9479,7 +9682,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -9490,10 +9693,10 @@
         <v>8.145026937965404E+17</v>
       </c>
       <c r="C68" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D68" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -9508,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -9519,10 +9722,10 @@
         <v>8.127463840047759E+17</v>
       </c>
       <c r="C69" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D69" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -9537,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -9548,10 +9751,10 @@
         <v>8.099014672094986E+17</v>
       </c>
       <c r="C70" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D70" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -9566,7 +9769,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -9577,10 +9780,10 @@
         <v>8.06689061750657E+17</v>
       </c>
       <c r="C71" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D71" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -9595,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -9606,10 +9809,10 @@
         <v>8.052563990894428E+17</v>
       </c>
       <c r="C72" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D72" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -9624,7 +9827,7 @@
         <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -9635,10 +9838,10 @@
         <v>7.918201430179308E+17</v>
       </c>
       <c r="C73" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D73" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -9653,7 +9856,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -9664,10 +9867,10 @@
         <v>7.784473166592532E+17</v>
       </c>
       <c r="C74" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D74" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -9682,7 +9885,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -9693,10 +9896,10 @@
         <v>7.782025041023795E+17</v>
       </c>
       <c r="C75" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D75" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -9711,7 +9914,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -9722,10 +9925,10 @@
         <v>7.693315197857341E+17</v>
       </c>
       <c r="C76" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D76" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -9740,7 +9943,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -9751,10 +9954,10 @@
         <v>7.642117054466212E+17</v>
       </c>
       <c r="C77" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D77" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -9769,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -9780,10 +9983,10 @@
         <v>7.478579349320253E+17</v>
       </c>
       <c r="C78" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D78" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -9798,7 +10001,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -9809,10 +10012,10 @@
         <v>7.294996017540669E+17</v>
       </c>
       <c r="C79" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D79" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -9827,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -9838,10 +10041,10 @@
         <v>7.225327909112545E+17</v>
       </c>
       <c r="C80" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D80" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -9856,7 +10059,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -9867,10 +10070,10 @@
         <v>7.223080492145336E+17</v>
       </c>
       <c r="C81" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D81" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -9885,7 +10088,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -9896,10 +10099,10 @@
         <v>7.215342018293268E+17</v>
       </c>
       <c r="C82" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D82" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -9914,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -9925,10 +10128,10 @@
         <v>7.168160807699825E+17</v>
       </c>
       <c r="C83" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D83" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -9943,7 +10146,7 @@
         <v>4</v>
       </c>
       <c r="I83" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -9954,10 +10157,10 @@
         <v>7.215342018293268E+17</v>
       </c>
       <c r="C84" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D84" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -9972,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -9983,10 +10186,10 @@
         <v>7.133238131030753E+17</v>
       </c>
       <c r="C85" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D85" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -10001,7 +10204,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -10012,10 +10215,10 @@
         <v>7.128427265977672E+17</v>
       </c>
       <c r="C86" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D86" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -10030,7 +10233,7 @@
         <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -10041,10 +10244,10 @@
         <v>7.112137353613189E+17</v>
       </c>
       <c r="C87" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D87" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -10059,7 +10262,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -10070,10 +10273,10 @@
         <v>7.063709953099571E+17</v>
       </c>
       <c r="C88" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D88" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -10088,7 +10291,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -10099,10 +10302,10 @@
         <v>7.063702638191411E+17</v>
       </c>
       <c r="C89" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D89" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -10117,7 +10320,7 @@
         <v>2</v>
       </c>
       <c r="I89" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -10128,10 +10331,10 @@
         <v>7.038340713155256E+17</v>
       </c>
       <c r="C90" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D90" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -10146,7 +10349,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -10157,10 +10360,10 @@
         <v>7.030809629267108E+17</v>
       </c>
       <c r="C91" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D91" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -10175,7 +10378,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -10186,10 +10389,10 @@
         <v>6.939515361002168E+17</v>
       </c>
       <c r="C92" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D92" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -10204,7 +10407,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -10215,10 +10418,10 @@
         <v>6.921256421172429E+17</v>
       </c>
       <c r="C93" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D93" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -10233,7 +10436,7 @@
         <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -10244,10 +10447,10 @@
         <v>6.882432376438784E+17</v>
       </c>
       <c r="C94" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D94" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -10262,7 +10465,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -10273,10 +10476,10 @@
         <v>6.881695421665772E+17</v>
       </c>
       <c r="C95" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D95" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -10291,7 +10494,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -10302,10 +10505,10 @@
         <v>6.727581013138514E+17</v>
       </c>
       <c r="C96" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D96" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -10320,7 +10523,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -10331,10 +10534,10 @@
         <v>6.686398475659305E+17</v>
       </c>
       <c r="C97" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D97" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -10349,7 +10552,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -10360,10 +10563,10 @@
         <v>6.679517406171546E+17</v>
       </c>
       <c r="C98" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D98" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -10378,7 +10581,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -10389,10 +10592,10 @@
         <v>6.623666666012713E+17</v>
       </c>
       <c r="C99" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D99" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -10407,7 +10610,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -10418,10 +10621,10 @@
         <v>6.59767592782078E+17</v>
       </c>
       <c r="C100" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D100" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -10436,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -10447,10 +10650,10 @@
         <v>6.587088112475668E+17</v>
       </c>
       <c r="C101" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D101" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -10465,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -10476,10 +10679,10 @@
         <v>6.58103369442177E+17</v>
       </c>
       <c r="C102" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D102" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -10494,7 +10697,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -10505,10 +10708,10 @@
         <v>6.31501892200194E+17</v>
       </c>
       <c r="C103" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D103" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -10523,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -10534,10 +10737,10 @@
         <v>5.976148214129746E+17</v>
       </c>
       <c r="C104" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D104" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -10552,7 +10755,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -10563,10 +10766,10 @@
         <v>5.849850694769091E+17</v>
       </c>
       <c r="C105" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D105" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -10581,7 +10784,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -10592,10 +10795,10 @@
         <v>5.548858105964954E+17</v>
       </c>
       <c r="C106" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D106" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -10610,7 +10813,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -10621,10 +10824,10 @@
         <v>5.541042225482547E+17</v>
       </c>
       <c r="C107" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D107" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -10639,7 +10842,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -10650,10 +10853,10 @@
         <v>5.541005219515761E+17</v>
       </c>
       <c r="C108" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D108" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -10668,7 +10871,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -10694,7 +10897,33 @@
         <v>6.691588785046729</v>
       </c>
       <c r="I109" t="s">
-        <v>558</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110" t="s">
+        <v>32</v>
+      </c>
+      <c r="E110">
+        <v>35</v>
+      </c>
+      <c r="F110">
+        <v>92</v>
+      </c>
+      <c r="G110">
+        <v>18</v>
+      </c>
+      <c r="H110">
+        <v>716</v>
+      </c>
+      <c r="I110" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/data_analysis/replies_averages.xlsx
+++ b/data_analysis/replies_averages.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="567">
   <si>
     <t>tweet_id</t>
   </si>
@@ -217,31 +217,28 @@
     <t>@JessRowe CONGRATS on the honour, your such a role model i have Depression and Anxiety and its great to see you help such a huge issue</t>
   </si>
   <si>
-    <t>Empty DataFrame
-Columns: [comment_count, retweet_count, quote_count, heart_count, tweet_body, handle]
-Index: []</t>
+    <t>{'comment_count': {}, 'retweet_count': {}, 'quote_count': {}, 'heart_count': {}, 'tweet_body': {}, 'handle': {}}</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                                                                                                                                                                                                                                                tweet_body        handle
-0             2             0           0           0  That’s awful. I’m sorry that you’ve been through that. Any suicide attempts are terrible,&amp;I think that it makes the need for thorough talking therapies more apparent, to ensure underlying issues are resolved. Suicide rates for trans ppl are no lower for those who’ve transitioned.  Mumoftwo1329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count          tweet_body         handle
-0             0             0           0           0  💚💚💚💚 a true king !  HollaitsYashi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                      tweet_body         handle
-0             0             0           0           0  And can I make a donation and how can I help✌️  AlanGlennJohn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                                                                                                                                                   tweet_body       handle
-0             0             0           0           1  I think your amazing, being so strong for everyone. You lost your brother. I’m just one irrelevant person who just loved Chester and Linkin Park in a small town in Australia. Thankyou 💙💙💙  traceyc9901</t>
-  </si>
-  <si>
-    <t>Series([], )</t>
+    <t>{'comment_count': {0: ' 2'}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: 'That’s awful. I’m sorry that you’ve been through that. Any suicide attempts are terrible,&amp;I think that it makes the need for thorough talking therapies more apparent, to ensure underlying issues are resolved. Suicide rates for trans ppl are no lower for those who’ve transitioned.'}, 'handle': {0: 'Mumoftwo1329'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: '💚💚💚💚 a true king !'}, 'handle': {0: 'HollaitsYashi'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: 'And can I make a donation and how can I help✌️'}, 'handle': {0: 'AlanGlennJohn'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: ' 1'}, 'tweet_body': {0: 'I think your amazing, being so strong for everyone. You lost your brother. I’m just one irrelevant person who just loved Chester and Linkin Park in a small town in Australia. Thankyou 💙💙💙'}, 'handle': {0: 'traceyc9901'}}</t>
+  </si>
+  <si>
+    <t>[0.5, 0.0, 0.0, 0.25]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0, 1]</t>
   </si>
   <si>
     <t>Iminemism</t>
@@ -338,16 +335,16 @@
     <t>Emotionally: I'm hurt. Mentally: I'm stressed. Spiritually: I'm depressed. Physically: I smile.</t>
   </si>
   <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                tweet_body         handle
-0             1             0           0           0  Okay. Thanks. May the force be with you.  shriramdusane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count      tweet_body          handle
-0             1             0           0           1  Good Morning 😊  Mukeshsaini595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count tweet_body          handle
-0             0             0           0           0    whyyy??  LizzanSaldhana</t>
+    <t>{'comment_count': {0: ' 1'}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: 'Okay. Thanks. May the force be with you.'}, 'handle': {0: 'shriramdusane'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: ' 1'}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: ' 1'}, 'tweet_body': {0: 'Good Morning 😊'}, 'handle': {0: 'Mukeshsaini595'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: 'whyyy??'}, 'handle': {0: 'LizzanSaldhana'}}</t>
+  </si>
+  <si>
+    <t>[0.6666666666666666, 0.0, 0.0, 0.3333333333333333]</t>
   </si>
   <si>
     <t>a4anthony_</t>
@@ -438,16 +435,19 @@
     <t>[('comment_count', 0), ('retweet_count', 0), ('quote_count', 0), ('heart_count', ' 1'), ('tweet_body', 'I know that feeling, hang in there for now, stay strong. It gets better ❤️ sending love your way'), ('handle', 'calvinkel')]</t>
   </si>
   <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count         tweet_body     handle
-0             1             0           0           0  We suppose yarn o  Tobibanks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                             tweet_body   handle
-0             0             0           0           0  Don't be depressed my dear... Everything will be ok..  Munchi8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count tweet_body      handle
-0             0             0           0           0         👀👀  faa_mulan_</t>
+    <t>{'comment_count': {0: ' 1'}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: 'We suppose yarn o'}, 'handle': {0: 'Tobibanks'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: "Don't be depressed my dear... Everything will be ok.."}, 'handle': {0: 'Munchi8'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: '👀👀'}, 'handle': {0: 'faa_mulan_'}}</t>
+  </si>
+  <si>
+    <t>[0.3333333333333333, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[1, 0, 0, 0]</t>
   </si>
   <si>
     <t>jeragallero</t>
@@ -708,32 +708,31 @@
     <t>Dear clients, you're the only reason I'm not killing myself tonight. I'm sick and tired of being insulted and belittled by my mom.</t>
   </si>
   <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                                                                                                  tweet_body     handle
-0             1             0           0           1  Praying for you Gelliace. God's joy comes on the morning. Rest well, tomorrow you will face a brand new day, brand new start. God bless! 🌞  Donjonats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                            tweet_body       handle
-0             0             0           0           0  Comedy, Psychological, Drama, Romance, etc. Ahhahaha  rheenapaday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count tweet_body        handle
-0             0             0           0           0    Try lng  bauramichael</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                   tweet_body        handle
-0             0             0           0           0  HAHAAHHAHA badtrip ako nyan nung isang araw kay papa HAHAAH  Arvincoconut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                                                tweet_body      handle
-0             0             0           0           0  aww... their impact 😭 im glad ure okay now klowy. if something happens andito lang ako 💕  junhoexist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count tweet_body       handle
-0             0             0           0           0       Why?  shufamayumi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                          tweet_body    handle
-0             1             0           0           1  Heeey we’re all here for you ayt 🤗  issabaww</t>
+    <t>{'comment_count': {0: ' 1'}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: ' 1'}, 'tweet_body': {0: "Praying for you Gelliace. God's joy comes on the morning. Rest well, tomorrow you will face a brand new day, brand new start. God bless! 🌞"}, 'handle': {0: 'Donjonats'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: 'Comedy, Psychological, Drama, Romance, etc. Ahhahaha'}, 'handle': {0: 'rheenapaday'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: 'Try lng'}, 'handle': {0: 'bauramichael'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: 'HAHAAHHAHA badtrip ako nyan nung isang araw kay papa HAHAAH'}, 'handle': {0: 'Arvincoconut'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: 'aww... their impact 😭 im glad ure okay now klowy. if something happens andito lang ako 💕'}, 'handle': {0: 'junhoexist'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: 'Why?'}, 'handle': {0: 'shufamayumi'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: ' 1'}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: ' 1'}, 'tweet_body': {0: 'Heeey we’re all here for you ayt 🤗'}, 'handle': {0: 'issabaww'}}</t>
+  </si>
+  <si>
+    <t>[0.2857142857142857, 0.0, 0.0, 0.2857142857142857]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0, 2]</t>
   </si>
   <si>
     <t>ThapeloNtisa1</t>
@@ -912,40 +911,37 @@
     <t>I'm slowly killing myself, I've really turned into someone else</t>
   </si>
   <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count    tweet_body        handle
-0             0             0           0           2  Askies hle 💔  Sharyberry_M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                                                                                                                                                                                                                                          tweet_body        handle
-0             0             0           0           0  So if I was your coach we'd be SUPER mindful on using those first ~4 weeks weeks with just a tiny bit of running (and make it very easy kylekranz.com/rpe, maybe even run/walks) but focusing heavily on daily strength &amp; mobility work\nWhat has your 3-4 weeks back looked like?  kyle_j_kranz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                 tweet_body          handle
-0             0             0           0           0  One o vaya kadi sneakers?  patrickmandla1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                                                                                                                                                               tweet_body          handle
-0             1             0           0           2  It is said to come across such. . . .as people let's consider those who are around us.. parents siblings &amp; our kids.   Who &amp; how are they going be when we end our lives...\nPlease note us not to this  jabula65044150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                    tweet_body       handle
-0             0             0           0           0  Piel is mos essential goods.  HabibiSouth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                                                                                                                                                                                                                                            tweet_body       handle
-0             1             0           0           0  Advise him that in this app no one is real and normal person can't get mad because people don't like his post. He have to much time in his life to worry about useless things. He was living before he join Twitter and now what changed. People are crazy over so called attention.  phalanxwisi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                                               tweet_body       handle
-0             0             0           0           0  Don't be sad everything will be ok your family does love you Shirley even you boyfriend  Btsddaeng10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                    tweet_body           handle
-0             0             0           0           0  Attended two sessions. I remember they made me draw pictures  TooLeighMthembu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                             tweet_body     handle
-0             0             0           0           0  @checholifestyle ish tis is sad bro...beyond actually  mmasekidi</t>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: ' 2'}, 'tweet_body': {0: 'Askies hle 💔'}, 'handle': {0: 'Sharyberry_M'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: "So if I was your coach we'd be SUPER mindful on using those first ~4 weeks weeks with just a tiny bit of running (and make it very easy kylekranz.com/rpe, maybe even run/walks) but focusing heavily on daily strength &amp; mobility work\nWhat has your 3-4 weeks back looked like?"}, 'handle': {0: 'kyle_j_kranz'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: 'One o vaya kadi sneakers?'}, 'handle': {0: 'patrickmandla1'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: ' 1'}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: ' 2'}, 'tweet_body': {0: "It is said to come across such. . . .as people let's consider those who are around us.. parents siblings &amp; our kids.   Who &amp; how are they going be when we end our lives...\nPlease note us not to this"}, 'handle': {0: 'jabula65044150'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: 'Piel is mos essential goods.'}, 'handle': {0: 'HabibiSouth'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: ' 1'}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: "Advise him that in this app no one is real and normal person can't get mad because people don't like his post. He have to much time in his life to worry about useless things. He was living before he join Twitter and now what changed. People are crazy over so called attention."}, 'handle': {0: 'phalanxwisi'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: "Don't be sad everything will be ok your family does love you Shirley even you boyfriend"}, 'handle': {0: 'Btsddaeng10'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: 'Attended two sessions. I remember they made me draw pictures'}, 'handle': {0: 'TooLeighMthembu'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: '@checholifestyle ish tis is sad bro...beyond actually'}, 'handle': {0: 'mmasekidi'}}</t>
+  </si>
+  <si>
+    <t>[0.2222222222222222, 0.0, 0.0, 0.4444444444444444]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0, 4]</t>
   </si>
   <si>
     <t>LeeLooLey</t>
@@ -1182,71 +1178,61 @@
     <t>there’s so much I need/want to do but I’m depressed so I’m going to sleep 16 hours a day instead</t>
   </si>
   <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                                                      tweet_body     handle
-0             1             0           0           0  Tomorrow I promise to share this story with you, and how my puppy helped save my life. #mhaw17  LeeLooLey</t>
+    <t>{'comment_count': {0: ' 1'}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: 'Tomorrow I promise to share this story with you, and how my puppy helped save my life. #mhaw17'}, 'handle': {0: 'LeeLooLey'}}</t>
   </si>
   <si>
     <t>[('comment_count', ' 1'), ('retweet_count', 0), ('quote_count', 0), ('heart_count', 0), ('tweet_body', 'Just keep the words going and delete the wrong ones later. You can totes do it.'), ('handle', 'CharlieChitty')]</t>
   </si>
   <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                                                                                                   tweet_body         handle
-0             0             0           0           0  I hope awareness of #mentalhealth provides others the needed support that there is no stigma as there are others in the same situation x ❤️  Hywel_Davies1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count tweet_body        handle
-0             1             0           0           1             pantonandrew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                             tweet_body           handle
-0             1             0           0           1  I hear you on that. It's as much for us as for them x  charleneallcott</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count        tweet_body          handle
-0             0             0           0           0  @Jack_Septic_Eye  rebeccajhorne9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                         tweet_body         handle
-0             0             0           0           0  I sleep a lot when I'm depressed.  Daphne_Writes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                               tweet_body handle
-0             0             0           0           1  We love this 🧡Important message and High fives for sharing your story 🙌  Pjoys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count tweet_body          handle
-0             0             0           0           0             Elder_Gamesman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                                                        tweet_body      handle
-0             1             0           0           1  Yeah, my anxiety is like that. Big hugs for you and you can always message if you need to talk 💕  RaraSensei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                              tweet_body         handle
-0             0             0           0           1  Well I have motivation I just have no idea what to do.  hannahduncan_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count tweet_body     handle
-0             1             0           0           1         ME  nkycheong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count          tweet_body           handle
-0             0             0           0           0  You’re hardly 22 🙄  LipViCarrieWood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count   tweet_body          handle
-0             0             0           0           0  #staystrong  SELKGrassroots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                  tweet_body      handle
-0             1             0           0           1  Baby girllll - love you ❤️  mayyammay_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                           tweet_body     handle
-0             1             0           0           2  This is the foulest response ever 🤢  jjvioletx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count     tweet_body          handle
-0             0             0           0           0  I love u baby  lucychristinac</t>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: 'I hope awareness of #mentalhealth provides others the needed support that there is no stigma as there are others in the same situation x ❤️'}, 'handle': {0: 'Hywel_Davies1'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: ' 1'}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: ' 1'}, 'tweet_body': {0: ''}, 'handle': {0: 'pantonandrew'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: ' 1'}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: ' 1'}, 'tweet_body': {0: "I hear you on that. It's as much for us as for them x"}, 'handle': {0: 'charleneallcott'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: '@Jack_Septic_Eye'}, 'handle': {0: 'rebeccajhorne9'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: "I sleep a lot when I'm depressed."}, 'handle': {0: 'Daphne_Writes'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: ' 1'}, 'tweet_body': {0: 'We love this 🧡Important message and High fives for sharing your story 🙌'}, 'handle': {0: 'Pjoys'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: ''}, 'handle': {0: 'Elder_Gamesman'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: ' 1'}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: ' 1'}, 'tweet_body': {0: 'Yeah, my anxiety is like that. Big hugs for you and you can always message if you need to talk 💕'}, 'handle': {0: 'RaraSensei'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: ' 1'}, 'tweet_body': {0: 'Well I have motivation I just have no idea what to do.'}, 'handle': {0: 'hannahduncan_'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: ' 1'}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: ' 1'}, 'tweet_body': {0: 'ME'}, 'handle': {0: 'nkycheong'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: 'You’re hardly 22 🙄'}, 'handle': {0: 'LipViCarrieWood'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: '#staystrong'}, 'handle': {0: 'SELKGrassroots'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: ' 1'}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: ' 1'}, 'tweet_body': {0: 'Baby girllll - love you ❤️'}, 'handle': {0: 'mayyammay_'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: ' 1'}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: ' 2'}, 'tweet_body': {0: 'This is the foulest response ever 🤢'}, 'handle': {0: 'jjvioletx'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: 'I love u baby'}, 'handle': {0: 'lucychristinac'}}</t>
+  </si>
+  <si>
+    <t>[0.4375, 0.0, 0.0, 0.5625]</t>
+  </si>
+  <si>
+    <t>[7, 0, 0, 9]</t>
   </si>
   <si>
     <t>BardiKi_29</t>
@@ -1732,64 +1718,55 @@
     <t>Yup killing myself</t>
   </si>
   <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                                                                                                            tweet_body           handle
-0             1             0           0           0  Omg this is a genius idea. Like please make me food or remind me to drink water or wash the growing pile of laundry that's been untouched for weeks.  Blueismycolorrn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                tweet_body      handle
-0             1             0           0           1  You got this brotha. Keep on keeping on.  THAT_G0MEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count tweet_body          handle
-0             0             0           0           5             LittleMasshole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count  tweet_body           handle
-0             0             0           0           0  Let's go 😉  Alexand66037980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count          tweet_body       handle
-0             1             0           0           1  Just be happy! Duh  Fire__giant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count  tweet_body         handle
-0             0             0           0           0  Thank you.  cujokillerpug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count tweet_body         handle
-0             0             0           0           0      life😓  chrisgall_way</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                                                                                                                                                                                                   tweet_body    handle
-0             1             0           0           1  That's honestly incredible I know how that feels I did the same thing I felt the same way parents might not appreciate you but as long as you know you doing something for them that's all that really matters you should be proud I would.  xeoscump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count     tweet_body       handle
-0             1             0           0           1  Honestly same  FoosTristin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                      tweet_body         handle
-0             0             0           0           0  That is true. It frustrates me  cujokillerpug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                      tweet_body      handle
-0             1             0           0           0  Best wishes on your transition to SC. #BPDChat  CarlDunnJr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                                          tweet_body      handle
-0             1             0           0           1  You're here &amp; that you finally got the correct diagnosis. #BPDChat  CarlDunnJr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                                     tweet_body         handle
-0             0             0           0           2  it was like a blanket of warmth came over me.  cujokillerpug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count                    tweet_body       handle
-0             0             0           0           0  @agregg08_ it's honestly sad  imgoing_lin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  comment_count retweet_count quote_count heart_count           tweet_body       handle
-0             1             1           0           0  @shirastackz_ uh oh  doctor__the</t>
+    <t>{'comment_count': {0: ' 1'}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: "Omg this is a genius idea. Like please make me food or remind me to drink water or wash the growing pile of laundry that's been untouched for weeks."}, 'handle': {0: 'Blueismycolorrn'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: ' 1'}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: ' 1'}, 'tweet_body': {0: 'You got this brotha. Keep on keeping on.'}, 'handle': {0: 'THAT_G0MEZ'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: ' 5'}, 'tweet_body': {0: ''}, 'handle': {0: 'LittleMasshole'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: "Let's go 😉"}, 'handle': {0: 'Alexand66037980'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: ' 1'}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: ' 1'}, 'tweet_body': {0: 'Just be happy! Duh'}, 'handle': {0: 'Fire__giant'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: 'Thank you.'}, 'handle': {0: 'cujokillerpug'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: 'life😓'}, 'handle': {0: 'chrisgall_way'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: ' 1'}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: ' 1'}, 'tweet_body': {0: "That's honestly incredible I know how that feels I did the same thing I felt the same way parents might not appreciate you but as long as you know you doing something for them that's all that really matters you should be proud I would."}, 'handle': {0: 'xeoscump'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: ' 1'}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: ' 1'}, 'tweet_body': {0: 'Honestly same'}, 'handle': {0: 'FoosTristin'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: 'That is true. It frustrates me'}, 'handle': {0: 'cujokillerpug'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: ' 1'}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: 'Best wishes on your transition to SC. #BPDChat'}, 'handle': {0: 'CarlDunnJr'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: ' 1'}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: ' 1'}, 'tweet_body': {0: "You're here &amp; that you finally got the correct diagnosis. #BPDChat"}, 'handle': {0: 'CarlDunnJr'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: ' 2'}, 'tweet_body': {0: 'it was like a blanket of warmth came over me.'}, 'handle': {0: 'cujokillerpug'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: 0}, 'retweet_count': {0: 0}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: "@agregg08_ it's honestly sad"}, 'handle': {0: 'imgoing_lin'}}</t>
+  </si>
+  <si>
+    <t>{'comment_count': {0: ' 1'}, 'retweet_count': {0: ' 1'}, 'quote_count': {0: 0}, 'heart_count': {0: 0}, 'tweet_body': {0: '@shirastackz_ uh oh'}, 'handle': {0: 'doctor__the'}}</t>
+  </si>
+  <si>
+    <t>[0.5333333333333333, 0.06666666666666667, 0.0, 0.8]</t>
+  </si>
+  <si>
+    <t>[8, 1, 0, 12]</t>
   </si>
 </sst>
 </file>
@@ -3098,7 +3075,7 @@
         <v>43</v>
       </c>
       <c r="I33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3148,10 +3125,10 @@
         <v>1.542401469978386E+18</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3177,10 +3154,10 @@
         <v>1.408030720711217E+18</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -3206,10 +3183,10 @@
         <v>1.094226244248498E+18</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3235,10 +3212,10 @@
         <v>1.048135847780934E+18</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3264,10 +3241,10 @@
         <v>1.041026955624239E+18</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3293,10 +3270,10 @@
         <v>1.048135847780934E+18</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3322,10 +3299,10 @@
         <v>9.42435551470166E+17</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3340,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3351,10 +3328,10 @@
         <v>9.216184057650053E+17</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -3369,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3380,10 +3357,10 @@
         <v>9.031143991913759E+17</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3409,10 +3386,10 @@
         <v>7.483485491638026E+17</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3427,7 +3404,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3438,10 +3415,10 @@
         <v>6.851318911675064E+17</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3467,10 +3444,10 @@
         <v>6.81899811558146E+17</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -3496,10 +3473,10 @@
         <v>6.155653983484682E+17</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3525,10 +3502,10 @@
         <v>5.940681626786406E+17</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3554,10 +3531,10 @@
         <v>5.536432516226335E+17</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3598,7 +3575,7 @@
         <v>0.4</v>
       </c>
       <c r="I17" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3624,7 +3601,7 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3674,10 +3651,10 @@
         <v>1.447599072991486E+18</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3703,10 +3680,10 @@
         <v>1.377546104787628E+18</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -3721,7 +3698,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3732,10 +3709,10 @@
         <v>1.359538269193703E+18</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3761,10 +3738,10 @@
         <v>1.309923412543001E+18</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3779,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3790,10 +3767,10 @@
         <v>1.299682346300584E+18</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3819,10 +3796,10 @@
         <v>1.248743900266676E+18</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3848,10 +3825,10 @@
         <v>1.248743098751959E+18</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3877,10 +3854,10 @@
         <v>1.245686597204484E+18</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3906,10 +3883,10 @@
         <v>1.24568190231038E+18</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3935,10 +3912,10 @@
         <v>1.22671032193244E+18</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3964,10 +3941,10 @@
         <v>1.210112519441912E+18</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3993,10 +3970,10 @@
         <v>1.171178696474092E+18</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -4011,7 +3988,7 @@
         <v>7</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4022,10 +3999,10 @@
         <v>1.163225979235504E+18</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -4040,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4051,10 +4028,10 @@
         <v>1.130949706459357E+18</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -4080,10 +4057,10 @@
         <v>8.307012931403203E+17</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -4124,7 +4101,7 @@
         <v>1.066666666666667</v>
       </c>
       <c r="I17" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4150,7 +4127,7 @@
         <v>16</v>
       </c>
       <c r="I18" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4200,10 +4177,10 @@
         <v>1.576191144861762E+18</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -4229,10 +4206,10 @@
         <v>1.561188365013512E+18</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4258,10 +4235,10 @@
         <v>1.52395919147153E+18</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4287,10 +4264,10 @@
         <v>1.424522021526934E+18</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4316,10 +4293,10 @@
         <v>1.376368797951517E+18</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4345,10 +4322,10 @@
         <v>1.324627632684626E+18</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4374,10 +4351,10 @@
         <v>1.318227840656011E+18</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -4392,7 +4369,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4403,10 +4380,10 @@
         <v>1.281587383784206E+18</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D9" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4432,10 +4409,10 @@
         <v>1.265940023200723E+18</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -4461,10 +4438,10 @@
         <v>1.239168164388172E+18</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4490,10 +4467,10 @@
         <v>1.236992681877721E+18</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D12" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -4519,10 +4496,10 @@
         <v>1.232095612948009E+18</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4548,10 +4525,10 @@
         <v>1.222089178696933E+18</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D14" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -4577,10 +4554,10 @@
         <v>1.169173751251948E+18</v>
       </c>
       <c r="C15" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D15" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -4606,10 +4583,10 @@
         <v>1.132016347381084E+18</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D16" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -4624,7 +4601,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4635,10 +4612,10 @@
         <v>1.125993606412521E+18</v>
       </c>
       <c r="C17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D17" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -4664,10 +4641,10 @@
         <v>1.122187132531925E+18</v>
       </c>
       <c r="C18" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D18" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -4693,10 +4670,10 @@
         <v>1.120888809506214E+18</v>
       </c>
       <c r="C19" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D19" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4722,10 +4699,10 @@
         <v>1.111621215339209E+18</v>
       </c>
       <c r="C20" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D20" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4740,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -4751,10 +4728,10 @@
         <v>1.100454866554483E+18</v>
       </c>
       <c r="C21" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D21" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4780,10 +4757,10 @@
         <v>1.099849769969545E+18</v>
       </c>
       <c r="C22" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D22" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4809,10 +4786,10 @@
         <v>1.093787074606572E+18</v>
       </c>
       <c r="C23" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -4838,10 +4815,10 @@
         <v>1.089769197372994E+18</v>
       </c>
       <c r="C24" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D24" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4867,10 +4844,10 @@
         <v>1.075099585008198E+18</v>
       </c>
       <c r="C25" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D25" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -4896,10 +4873,10 @@
         <v>1.073624325754745E+18</v>
       </c>
       <c r="C26" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D26" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -4914,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -4925,10 +4902,10 @@
         <v>1.068350928409944E+18</v>
       </c>
       <c r="C27" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D27" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4954,10 +4931,10 @@
         <v>1.066693709532549E+18</v>
       </c>
       <c r="C28" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D28" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4983,10 +4960,10 @@
         <v>1.063485118919016E+18</v>
       </c>
       <c r="C29" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D29" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -5001,7 +4978,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -5012,10 +4989,10 @@
         <v>1.062328024387842E+18</v>
       </c>
       <c r="C30" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D30" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -5030,7 +5007,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -5041,10 +5018,10 @@
         <v>1.056137114910249E+18</v>
       </c>
       <c r="C31" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D31" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -5070,10 +5047,10 @@
         <v>1.051847265558512E+18</v>
       </c>
       <c r="C32" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D32" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -5099,10 +5076,10 @@
         <v>1.014694217027748E+18</v>
       </c>
       <c r="C33" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D33" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -5128,10 +5105,10 @@
         <v>9.99671158772396E+17</v>
       </c>
       <c r="C34" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D34" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -5157,10 +5134,10 @@
         <v>9.921811515979694E+17</v>
       </c>
       <c r="C35" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -5186,10 +5163,10 @@
         <v>9.898530672343654E+17</v>
       </c>
       <c r="C36" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D36" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -5215,10 +5192,10 @@
         <v>9.781612173017743E+17</v>
       </c>
       <c r="C37" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D37" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -5244,10 +5221,10 @@
         <v>9.673122488792924E+17</v>
       </c>
       <c r="C38" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D38" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -5273,10 +5250,10 @@
         <v>9.655434105714893E+17</v>
       </c>
       <c r="C39" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D39" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -5291,7 +5268,7 @@
         <v>4</v>
       </c>
       <c r="I39" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -5302,10 +5279,10 @@
         <v>9.480430673192059E+17</v>
       </c>
       <c r="C40" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D40" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -5331,10 +5308,10 @@
         <v>9.445467076346593E+17</v>
       </c>
       <c r="C41" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D41" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -5360,10 +5337,10 @@
         <v>9.426647177507758E+17</v>
       </c>
       <c r="C42" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D42" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -5389,10 +5366,10 @@
         <v>9.406258034520924E+17</v>
       </c>
       <c r="C43" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D43" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -5418,10 +5395,10 @@
         <v>6.898314858183352E+17</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D44" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -5462,7 +5439,7 @@
         <v>0.6976744186046512</v>
       </c>
       <c r="I45" t="s">
-        <v>69</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -5488,7 +5465,7 @@
         <v>30</v>
       </c>
       <c r="I46" t="s">
-        <v>69</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -5538,10 +5515,10 @@
         <v>1.590686560919654E+18</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -5567,10 +5544,10 @@
         <v>1.575390496431776E+18</v>
       </c>
       <c r="C3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5596,10 +5573,10 @@
         <v>1.55730013134667E+18</v>
       </c>
       <c r="C4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -5625,10 +5602,10 @@
         <v>1.527241376399868E+18</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D5" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5654,10 +5631,10 @@
         <v>1.49651731080228E+18</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D6" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -5672,7 +5649,7 @@
         <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5683,10 +5660,10 @@
         <v>1.466104095744401E+18</v>
       </c>
       <c r="C7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5712,10 +5689,10 @@
         <v>1.448114799649436E+18</v>
       </c>
       <c r="C8" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D8" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -5730,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5741,10 +5718,10 @@
         <v>1.409017562726339E+18</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D9" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -5759,7 +5736,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5770,10 +5747,10 @@
         <v>1.398516745875374E+18</v>
       </c>
       <c r="C10" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D10" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -5799,10 +5776,10 @@
         <v>1.355939767893062E+18</v>
       </c>
       <c r="C11" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D11" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -5817,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -5828,10 +5805,10 @@
         <v>1.31105344213212E+18</v>
       </c>
       <c r="C12" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D12" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -5857,10 +5834,10 @@
         <v>1.292735989182538E+18</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D13" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -5886,10 +5863,10 @@
         <v>1.290013593040089E+18</v>
       </c>
       <c r="C14" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D14" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -5915,10 +5892,10 @@
         <v>1.289812721957994E+18</v>
       </c>
       <c r="C15" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D15" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -5944,10 +5921,10 @@
         <v>1.289784825373577E+18</v>
       </c>
       <c r="C16" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D16" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -5973,10 +5950,10 @@
         <v>1.253338597853295E+18</v>
       </c>
       <c r="C17" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D17" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -5991,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -6002,10 +5979,10 @@
         <v>1.197512813905883E+18</v>
       </c>
       <c r="C18" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D18" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -6031,10 +6008,10 @@
         <v>1.197510803743793E+18</v>
       </c>
       <c r="C19" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D19" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -6060,10 +6037,10 @@
         <v>1.172063485511053E+18</v>
       </c>
       <c r="C20" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D20" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -6078,7 +6055,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -6089,10 +6066,10 @@
         <v>1.168994984487522E+18</v>
       </c>
       <c r="C21" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D21" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -6118,10 +6095,10 @@
         <v>1.132966153561813E+18</v>
       </c>
       <c r="C22" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D22" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -6147,10 +6124,10 @@
         <v>1.04961277312938E+18</v>
       </c>
       <c r="C23" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D23" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -6176,10 +6153,10 @@
         <v>1.04025679417251E+18</v>
       </c>
       <c r="C24" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D24" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -6194,7 +6171,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -6205,10 +6182,10 @@
         <v>1.024666495673147E+18</v>
       </c>
       <c r="C25" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D25" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -6234,10 +6211,10 @@
         <v>1.013535691698049E+18</v>
       </c>
       <c r="C26" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D26" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -6263,10 +6240,10 @@
         <v>9.963012447959695E+17</v>
       </c>
       <c r="C27" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D27" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -6292,10 +6269,10 @@
         <v>9.85593530704855E+17</v>
       </c>
       <c r="C28" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D28" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -6310,7 +6287,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -6321,10 +6298,10 @@
         <v>9.336186149467218E+17</v>
       </c>
       <c r="C29" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D29" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -6350,10 +6327,10 @@
         <v>7.784641409185956E+17</v>
       </c>
       <c r="C30" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D30" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -6368,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -6379,10 +6356,10 @@
         <v>6.605089407955395E+17</v>
       </c>
       <c r="C31" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D31" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -6423,7 +6400,7 @@
         <v>0.8</v>
       </c>
       <c r="I32" t="s">
-        <v>69</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -6449,7 +6426,7 @@
         <v>24</v>
       </c>
       <c r="I33" t="s">
-        <v>69</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -6499,10 +6476,10 @@
         <v>8.63118697732481E+17</v>
       </c>
       <c r="C2" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="D2" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -6517,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6528,10 +6505,10 @@
         <v>8.590192912068362E+17</v>
       </c>
       <c r="C3" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="D3" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -6546,7 +6523,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6557,10 +6534,10 @@
         <v>7.854149874015519E+17</v>
       </c>
       <c r="C4" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="D4" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -6575,7 +6552,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6586,10 +6563,10 @@
         <v>7.814875123384934E+17</v>
       </c>
       <c r="C5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="D5" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -6604,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6615,10 +6592,10 @@
         <v>7.725478957699154E+17</v>
       </c>
       <c r="C6" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D6" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -6633,7 +6610,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6644,10 +6621,10 @@
         <v>7.392101306302669E+17</v>
       </c>
       <c r="C7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -6673,10 +6650,10 @@
         <v>7.071866685084549E+17</v>
       </c>
       <c r="C8" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="D8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6702,10 +6679,10 @@
         <v>6.923541979294884E+17</v>
       </c>
       <c r="C9" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="D9" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -6731,10 +6708,10 @@
         <v>6.644661061286912E+17</v>
       </c>
       <c r="C10" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D10" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -6760,10 +6737,10 @@
         <v>6.560998697619169E+17</v>
       </c>
       <c r="C11" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="D11" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -6789,10 +6766,10 @@
         <v>6.336076294498755E+17</v>
       </c>
       <c r="C12" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="D12" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -6818,10 +6795,10 @@
         <v>5.853954683242291E+17</v>
       </c>
       <c r="C13" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="D13" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -6847,10 +6824,10 @@
         <v>5.757110319531295E+17</v>
       </c>
       <c r="C14" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="D14" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -6876,10 +6853,10 @@
         <v>5.757104571908342E+17</v>
       </c>
       <c r="C15" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="D15" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -6894,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6905,10 +6882,10 @@
         <v>9.700254636273705E+17</v>
       </c>
       <c r="C16" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="D16" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -6923,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -6934,10 +6911,10 @@
         <v>9.697101020464783E+17</v>
       </c>
       <c r="C17" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="D17" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -6963,10 +6940,10 @@
         <v>9.591727127269212E+17</v>
       </c>
       <c r="C18" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="D18" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -6992,10 +6969,10 @@
         <v>1.065369524260798E+18</v>
       </c>
       <c r="C19" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="D19" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="E19">
         <v>5</v>
@@ -7010,7 +6987,7 @@
         <v>197</v>
       </c>
       <c r="I19" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -7021,10 +6998,10 @@
         <v>1.014138184375198E+18</v>
       </c>
       <c r="C20" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="D20" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -7050,10 +7027,10 @@
         <v>1.012087419276026E+18</v>
       </c>
       <c r="C21" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D21" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -7079,10 +7056,10 @@
         <v>9.871529791227945E+17</v>
       </c>
       <c r="C22" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="D22" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -7108,10 +7085,10 @@
         <v>9.823495409667195E+17</v>
       </c>
       <c r="C23" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D23" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -7137,10 +7114,10 @@
         <v>1.171420542169244E+18</v>
       </c>
       <c r="C24" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="D24" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -7166,10 +7143,10 @@
         <v>1.162053380212064E+18</v>
       </c>
       <c r="C25" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="D25" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -7195,10 +7172,10 @@
         <v>1.162053380212064E+18</v>
       </c>
       <c r="C26" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="D26" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -7224,10 +7201,10 @@
         <v>1.139832230530945E+18</v>
       </c>
       <c r="C27" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="D27" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -7253,10 +7230,10 @@
         <v>1.138465825722118E+18</v>
       </c>
       <c r="C28" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="D28" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -7271,7 +7248,7 @@
         <v>6</v>
       </c>
       <c r="I28" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -7282,10 +7259,10 @@
         <v>1.131915405117862E+18</v>
       </c>
       <c r="C29" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D29" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -7300,7 +7277,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -7311,10 +7288,10 @@
         <v>1.124431590908674E+18</v>
       </c>
       <c r="C30" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="D30" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -7329,7 +7306,7 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -7340,10 +7317,10 @@
         <v>1.122881001359852E+18</v>
       </c>
       <c r="C31" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="D31" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -7369,10 +7346,10 @@
         <v>1.098574096663753E+18</v>
       </c>
       <c r="C32" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="D32" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -7387,7 +7364,7 @@
         <v>8</v>
       </c>
       <c r="I32" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -7398,10 +7375,10 @@
         <v>1.292866207146705E+18</v>
       </c>
       <c r="C33" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="D33" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -7416,7 +7393,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -7427,10 +7404,10 @@
         <v>1.278149509734957E+18</v>
       </c>
       <c r="C34" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="D34" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -7456,10 +7433,10 @@
         <v>1.263210483827577E+18</v>
       </c>
       <c r="C35" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="D35" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -7474,7 +7451,7 @@
         <v>19</v>
       </c>
       <c r="I35" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -7485,10 +7462,10 @@
         <v>1.261731415252754E+18</v>
       </c>
       <c r="C36" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="D36" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -7503,7 +7480,7 @@
         <v>6</v>
       </c>
       <c r="I36" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -7514,10 +7491,10 @@
         <v>1.261679321615405E+18</v>
       </c>
       <c r="C37" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="D37" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="E37">
         <v>3</v>
@@ -7532,7 +7509,7 @@
         <v>38</v>
       </c>
       <c r="I37" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -7543,10 +7520,10 @@
         <v>1.249784364780655E+18</v>
       </c>
       <c r="C38" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D38" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -7572,10 +7549,10 @@
         <v>1.249783454159553E+18</v>
       </c>
       <c r="C39" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D39" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -7601,10 +7578,10 @@
         <v>1.212516210736275E+18</v>
       </c>
       <c r="C40" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="D40" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -7630,10 +7607,10 @@
         <v>1.198672560516256E+18</v>
       </c>
       <c r="C41" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="D41" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -7659,10 +7636,10 @@
         <v>1.182424872783417E+18</v>
       </c>
       <c r="C42" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="D42" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -7677,7 +7654,7 @@
         <v>8</v>
       </c>
       <c r="I42" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -7703,7 +7680,7 @@
         <v>7.682926829268292</v>
       </c>
       <c r="I43" t="s">
-        <v>69</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -7729,7 +7706,7 @@
         <v>315</v>
       </c>
       <c r="I44" t="s">
-        <v>69</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -7779,10 +7756,10 @@
         <v>1.589092437771047E+18</v>
       </c>
       <c r="C2" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="D2" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7808,10 +7785,10 @@
         <v>1.579547550633558E+18</v>
       </c>
       <c r="C3" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="D3" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -7837,10 +7814,10 @@
         <v>1.577785118072119E+18</v>
       </c>
       <c r="C4" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="D4" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -7866,10 +7843,10 @@
         <v>1.575326459501109E+18</v>
       </c>
       <c r="C5" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D5" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -7895,10 +7872,10 @@
         <v>1.558677784842609E+18</v>
       </c>
       <c r="C6" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D6" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -7924,10 +7901,10 @@
         <v>1.547693283916231E+18</v>
       </c>
       <c r="C7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D7" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -7953,10 +7930,10 @@
         <v>1.541425004692349E+18</v>
       </c>
       <c r="C8" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="D8" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7982,10 +7959,10 @@
         <v>1.514112052545085E+18</v>
       </c>
       <c r="C9" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D9" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -8011,10 +7988,10 @@
         <v>1.473154859058696E+18</v>
       </c>
       <c r="C10" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D10" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -8029,7 +8006,7 @@
         <v>8</v>
       </c>
       <c r="I10" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -8040,10 +8017,10 @@
         <v>1.462119080383562E+18</v>
       </c>
       <c r="C11" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="D11" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -8069,10 +8046,10 @@
         <v>1.462063656880026E+18</v>
       </c>
       <c r="C12" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="D12" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -8098,10 +8075,10 @@
         <v>1.460475011190432E+18</v>
       </c>
       <c r="C13" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D13" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -8127,10 +8104,10 @@
         <v>1.456811775421075E+18</v>
       </c>
       <c r="C14" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="D14" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -8145,7 +8122,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -8156,10 +8133,10 @@
         <v>1.456069108043108E+18</v>
       </c>
       <c r="C15" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D15" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -8185,10 +8162,10 @@
         <v>1.449280021353439E+18</v>
       </c>
       <c r="C16" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="D16" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -8214,10 +8191,10 @@
         <v>1.446171692330459E+18</v>
       </c>
       <c r="C17" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="D17" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -8243,10 +8220,10 @@
         <v>1.415736210782253E+18</v>
       </c>
       <c r="C18" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D18" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="E18">
         <v>12</v>
@@ -8261,7 +8238,7 @@
         <v>557</v>
       </c>
       <c r="I18" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -8272,10 +8249,10 @@
         <v>1.415006124399469E+18</v>
       </c>
       <c r="C19" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D19" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -8290,7 +8267,7 @@
         <v>13</v>
       </c>
       <c r="I19" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -8301,10 +8278,10 @@
         <v>1.410994686173585E+18</v>
       </c>
       <c r="C20" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="D20" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -8330,10 +8307,10 @@
         <v>1.381799955581579E+18</v>
       </c>
       <c r="C21" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="D21" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -8359,10 +8336,10 @@
         <v>1.269855179794461E+18</v>
       </c>
       <c r="C22" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="D22" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -8388,10 +8365,10 @@
         <v>1.248851106127663E+18</v>
       </c>
       <c r="C23" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="D23" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -8417,10 +8394,10 @@
         <v>1.247735261716496E+18</v>
       </c>
       <c r="C24" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="D24" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -8446,10 +8423,10 @@
         <v>1.302276367921361E+18</v>
       </c>
       <c r="C25" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="D25" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -8475,10 +8452,10 @@
         <v>1.202438331667276E+18</v>
       </c>
       <c r="C26" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="D26" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -8504,10 +8481,10 @@
         <v>1.201324695867539E+18</v>
       </c>
       <c r="C27" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="D27" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -8533,10 +8510,10 @@
         <v>1.186372227685421E+18</v>
       </c>
       <c r="C28" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="D28" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -8562,10 +8539,10 @@
         <v>1.18532376415157E+18</v>
       </c>
       <c r="C29" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="D29" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -8580,7 +8557,7 @@
         <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -8591,10 +8568,10 @@
         <v>1.184979238882931E+18</v>
       </c>
       <c r="C30" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="D30" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -8620,10 +8597,10 @@
         <v>1.166203301668561E+18</v>
       </c>
       <c r="C31" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D31" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -8638,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -8649,10 +8626,10 @@
         <v>1.164751932411396E+18</v>
       </c>
       <c r="C32" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="D32" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -8667,7 +8644,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -8678,10 +8655,10 @@
         <v>1.142620829747954E+18</v>
       </c>
       <c r="C33" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="D33" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -8707,10 +8684,10 @@
         <v>1.095464766942994E+18</v>
       </c>
       <c r="C34" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="D34" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -8736,10 +8713,10 @@
         <v>1.090877444595171E+18</v>
       </c>
       <c r="C35" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="D35" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -8754,7 +8731,7 @@
         <v>28</v>
       </c>
       <c r="I35" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -8765,10 +8742,10 @@
         <v>1.089283910163407E+18</v>
       </c>
       <c r="C36" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="D36" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -8794,10 +8771,10 @@
         <v>1.074725586101096E+18</v>
       </c>
       <c r="C37" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D37" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -8823,10 +8800,10 @@
         <v>1.048367977396093E+18</v>
       </c>
       <c r="C38" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="D38" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -8852,10 +8829,10 @@
         <v>1.043562342645162E+18</v>
       </c>
       <c r="C39" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="D39" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -8870,7 +8847,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -8881,10 +8858,10 @@
         <v>1.038570265964368E+18</v>
       </c>
       <c r="C40" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="D40" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -8910,10 +8887,10 @@
         <v>1.023013002948293E+18</v>
       </c>
       <c r="C41" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="D41" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -8939,10 +8916,10 @@
         <v>1.019805406296588E+18</v>
       </c>
       <c r="C42" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="D42" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -8968,10 +8945,10 @@
         <v>1.019418420717244E+18</v>
       </c>
       <c r="C43" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="D43" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -8997,10 +8974,10 @@
         <v>1.014628380367639E+18</v>
       </c>
       <c r="C44" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="D44" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -9026,10 +9003,10 @@
         <v>1.00638734104322E+18</v>
       </c>
       <c r="C45" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="D45" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -9055,10 +9032,10 @@
         <v>9.87890309400023E+17</v>
       </c>
       <c r="C46" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="D46" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -9084,10 +9061,10 @@
         <v>9.737320600523776E+17</v>
       </c>
       <c r="C47" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="D47" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -9113,10 +9090,10 @@
         <v>9.507668829440328E+17</v>
       </c>
       <c r="C48" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="D48" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -9142,10 +9119,10 @@
         <v>9.457931884213985E+17</v>
       </c>
       <c r="C49" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="D49" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -9171,10 +9148,10 @@
         <v>9.450864327370752E+17</v>
       </c>
       <c r="C50" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="D50" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -9200,10 +9177,10 @@
         <v>9.44883548787327E+17</v>
       </c>
       <c r="C51" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="D51" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -9229,10 +9206,10 @@
         <v>9.42624575728255E+17</v>
       </c>
       <c r="C52" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="D52" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -9258,10 +9235,10 @@
         <v>9.32653939148886E+17</v>
       </c>
       <c r="C53" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="D53" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -9287,10 +9264,10 @@
         <v>9.032869562846618E+17</v>
       </c>
       <c r="C54" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="D54" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -9316,10 +9293,10 @@
         <v>9.02970015925887E+17</v>
       </c>
       <c r="C55" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="D55" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -9345,10 +9322,10 @@
         <v>9.027795797980529E+17</v>
       </c>
       <c r="C56" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="D56" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -9374,10 +9351,10 @@
         <v>8.919070002626847E+17</v>
       </c>
       <c r="C57" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D57" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -9403,10 +9380,10 @@
         <v>8.856597209247703E+17</v>
       </c>
       <c r="C58" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D58" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -9421,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -9432,10 +9409,10 @@
         <v>8.814610147636306E+17</v>
       </c>
       <c r="C59" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D59" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -9461,10 +9438,10 @@
         <v>8.677945105494589E+17</v>
       </c>
       <c r="C60" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="D60" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -9490,10 +9467,10 @@
         <v>8.663894486904586E+17</v>
       </c>
       <c r="C61" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D61" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -9519,10 +9496,10 @@
         <v>8.663891305567109E+17</v>
       </c>
       <c r="C62" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D62" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -9537,7 +9514,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -9548,10 +9525,10 @@
         <v>8.561053931221524E+17</v>
       </c>
       <c r="C63" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D63" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -9577,10 +9554,10 @@
         <v>8.537500640403415E+17</v>
       </c>
       <c r="C64" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="D64" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -9606,10 +9583,10 @@
         <v>8.500882893064643E+17</v>
       </c>
       <c r="C65" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D65" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -9635,10 +9612,10 @@
         <v>8.309054852976067E+17</v>
       </c>
       <c r="C66" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="D66" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -9664,10 +9641,10 @@
         <v>8.207483090233795E+17</v>
       </c>
       <c r="C67" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D67" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -9682,7 +9659,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -9693,10 +9670,10 @@
         <v>8.145026937965404E+17</v>
       </c>
       <c r="C68" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="D68" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -9722,10 +9699,10 @@
         <v>8.127463840047759E+17</v>
       </c>
       <c r="C69" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D69" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -9751,10 +9728,10 @@
         <v>8.099014672094986E+17</v>
       </c>
       <c r="C70" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="D70" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -9780,10 +9757,10 @@
         <v>8.06689061750657E+17</v>
       </c>
       <c r="C71" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="D71" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -9809,10 +9786,10 @@
         <v>8.052563990894428E+17</v>
       </c>
       <c r="C72" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D72" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -9827,7 +9804,7 @@
         <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -9838,10 +9815,10 @@
         <v>7.918201430179308E+17</v>
       </c>
       <c r="C73" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D73" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -9867,10 +9844,10 @@
         <v>7.784473166592532E+17</v>
       </c>
       <c r="C74" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="D74" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -9896,10 +9873,10 @@
         <v>7.782025041023795E+17</v>
       </c>
       <c r="C75" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D75" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -9925,10 +9902,10 @@
         <v>7.693315197857341E+17</v>
       </c>
       <c r="C76" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D76" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -9954,10 +9931,10 @@
         <v>7.642117054466212E+17</v>
       </c>
       <c r="C77" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D77" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -9983,10 +9960,10 @@
         <v>7.478579349320253E+17</v>
       </c>
       <c r="C78" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="D78" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -10012,10 +9989,10 @@
         <v>7.294996017540669E+17</v>
       </c>
       <c r="C79" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="D79" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -10030,7 +10007,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -10041,10 +10018,10 @@
         <v>7.225327909112545E+17</v>
       </c>
       <c r="C80" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="D80" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -10070,10 +10047,10 @@
         <v>7.223080492145336E+17</v>
       </c>
       <c r="C81" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="D81" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -10099,10 +10076,10 @@
         <v>7.215342018293268E+17</v>
       </c>
       <c r="C82" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="D82" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -10128,10 +10105,10 @@
         <v>7.168160807699825E+17</v>
       </c>
       <c r="C83" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="D83" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -10157,10 +10134,10 @@
         <v>7.215342018293268E+17</v>
       </c>
       <c r="C84" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="D84" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -10186,10 +10163,10 @@
         <v>7.133238131030753E+17</v>
       </c>
       <c r="C85" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="D85" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -10215,10 +10192,10 @@
         <v>7.128427265977672E+17</v>
       </c>
       <c r="C86" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="D86" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -10244,10 +10221,10 @@
         <v>7.112137353613189E+17</v>
       </c>
       <c r="C87" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="D87" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -10273,10 +10250,10 @@
         <v>7.063709953099571E+17</v>
       </c>
       <c r="C88" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="D88" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -10302,10 +10279,10 @@
         <v>7.063702638191411E+17</v>
       </c>
       <c r="C89" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="D89" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -10331,10 +10308,10 @@
         <v>7.038340713155256E+17</v>
       </c>
       <c r="C90" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="D90" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -10360,10 +10337,10 @@
         <v>7.030809629267108E+17</v>
       </c>
       <c r="C91" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="D91" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -10389,10 +10366,10 @@
         <v>6.939515361002168E+17</v>
       </c>
       <c r="C92" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="D92" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -10418,10 +10395,10 @@
         <v>6.921256421172429E+17</v>
       </c>
       <c r="C93" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="D93" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -10447,10 +10424,10 @@
         <v>6.882432376438784E+17</v>
       </c>
       <c r="C94" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="D94" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -10476,10 +10453,10 @@
         <v>6.881695421665772E+17</v>
       </c>
       <c r="C95" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="D95" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -10505,10 +10482,10 @@
         <v>6.727581013138514E+17</v>
       </c>
       <c r="C96" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="D96" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -10534,10 +10511,10 @@
         <v>6.686398475659305E+17</v>
       </c>
       <c r="C97" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="D97" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -10563,10 +10540,10 @@
         <v>6.679517406171546E+17</v>
       </c>
       <c r="C98" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="D98" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -10592,10 +10569,10 @@
         <v>6.623666666012713E+17</v>
       </c>
       <c r="C99" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="D99" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -10621,10 +10598,10 @@
         <v>6.59767592782078E+17</v>
       </c>
       <c r="C100" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="D100" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -10639,7 +10616,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -10650,10 +10627,10 @@
         <v>6.587088112475668E+17</v>
       </c>
       <c r="C101" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="D101" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -10679,10 +10656,10 @@
         <v>6.58103369442177E+17</v>
       </c>
       <c r="C102" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="D102" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -10708,10 +10685,10 @@
         <v>6.31501892200194E+17</v>
       </c>
       <c r="C103" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="D103" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -10737,10 +10714,10 @@
         <v>5.976148214129746E+17</v>
       </c>
       <c r="C104" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="D104" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -10766,10 +10743,10 @@
         <v>5.849850694769091E+17</v>
       </c>
       <c r="C105" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="D105" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -10795,10 +10772,10 @@
         <v>5.548858105964954E+17</v>
       </c>
       <c r="C106" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="D106" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -10824,10 +10801,10 @@
         <v>5.541042225482547E+17</v>
       </c>
       <c r="C107" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="D107" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -10853,10 +10830,10 @@
         <v>5.541005219515761E+17</v>
       </c>
       <c r="C108" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="D108" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -10897,7 +10874,7 @@
         <v>6.691588785046729</v>
       </c>
       <c r="I109" t="s">
-        <v>69</v>
+        <v>565</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -10923,7 +10900,7 @@
         <v>716</v>
       </c>
       <c r="I110" t="s">
-        <v>69</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>

--- a/data_analysis/replies_averages.xlsx
+++ b/data_analysis/replies_averages.xlsx
@@ -3063,7 +3063,7 @@
         <v>32</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -3589,7 +3589,7 @@
         <v>32</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -4115,7 +4115,7 @@
         <v>32</v>
       </c>
       <c r="E18">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -5453,7 +5453,7 @@
         <v>32</v>
       </c>
       <c r="E46">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -6414,7 +6414,7 @@
         <v>32</v>
       </c>
       <c r="E33">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F33">
         <v>5</v>
@@ -7694,7 +7694,7 @@
         <v>32</v>
       </c>
       <c r="E44">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F44">
         <v>23</v>
@@ -10888,7 +10888,7 @@
         <v>32</v>
       </c>
       <c r="E110">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F110">
         <v>92</v>
